--- a/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
+++ b/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ACF781F5-85FF-467C-883A-81FDE98020E9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D15BD1F-9451-4AD8-A4D1-71DCB9EA2DF1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="2" xr2:uid="{A683A0A2-948E-478E-9454-D16ED83D3AB7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="1" xr2:uid="{A683A0A2-948E-478E-9454-D16ED83D3AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="PRECIO DE COSTO" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,7 @@
     <sheet name="MODIFICACIONES" sheetId="4" r:id="rId3"/>
     <sheet name="AGREGAR COMPRA" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="147">
   <si>
     <t xml:space="preserve">PRECIO </t>
   </si>
@@ -82,9 +81,6 @@
     <t>COCA-COLA</t>
   </si>
   <si>
-    <t>COCA COLA X 1.5LTS</t>
-  </si>
-  <si>
     <t>CODIGO</t>
   </si>
   <si>
@@ -118,12 +114,6 @@
     <t>PROVEEDOR</t>
   </si>
   <si>
-    <t>PEPSI X600 ML</t>
-  </si>
-  <si>
-    <t>MIRINDA X 1.5LTS</t>
-  </si>
-  <si>
     <t>PEPSI</t>
   </si>
   <si>
@@ -133,78 +123,33 @@
     <t>VILLAVICENCIO</t>
   </si>
   <si>
-    <t>LEVITE X 600 ML</t>
-  </si>
-  <si>
-    <t>VILLAVICENCIO X 500ML</t>
-  </si>
-  <si>
-    <t>BLOCK X 40 GRS</t>
-  </si>
-  <si>
     <t>ARCOR</t>
   </si>
   <si>
     <t>GOLOSINAS</t>
   </si>
   <si>
-    <t>AGUILA MINITORTA</t>
-  </si>
-  <si>
-    <t>ALFAJORES</t>
-  </si>
-  <si>
-    <t>CHOCOLATES</t>
-  </si>
-  <si>
-    <t>MILKA ALMENDRAS</t>
-  </si>
-  <si>
     <t>KRAFT</t>
   </si>
   <si>
-    <t>TRI-SHOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOPLINE SEVEN </t>
-  </si>
-  <si>
     <t>CHICLES</t>
   </si>
   <si>
-    <t xml:space="preserve">BELDENT </t>
-  </si>
-  <si>
     <t>BULTO</t>
   </si>
   <si>
     <t>CRITICO</t>
   </si>
   <si>
-    <t>PHILIP KS</t>
-  </si>
-  <si>
     <t>MASSALIN</t>
   </si>
   <si>
     <t>CIGARRILLOS</t>
   </si>
   <si>
-    <t>MARLBORO BOX</t>
-  </si>
-  <si>
     <t>NOBLEZA</t>
   </si>
   <si>
-    <t>LUCKY CLICK</t>
-  </si>
-  <si>
-    <t>CAMEL BOX</t>
-  </si>
-  <si>
-    <t>COCA COLA</t>
-  </si>
-  <si>
     <t>CIGARROS</t>
   </si>
   <si>
@@ -217,18 +162,6 @@
     <t>SECTOR</t>
   </si>
   <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
-    <t>COMPRAS</t>
-  </si>
-  <si>
-    <t>VENTAS</t>
-  </si>
-  <si>
-    <t>MOVIMIENTOS</t>
-  </si>
-  <si>
     <t>MODIFICACIONES</t>
   </si>
   <si>
@@ -388,17 +321,161 @@
     <t>CALCULO DEL VUELTO</t>
   </si>
   <si>
-    <t>CANTIDAD DE NUMEROS NEGATIVOS</t>
-  </si>
-  <si>
     <t>VALIDAR EL DINERO QUE TE DEN PARA EL VUELTO</t>
+  </si>
+  <si>
+    <t>completar ¿Qué desea listar?.  . .</t>
+  </si>
+  <si>
+    <t>CONSULTAR MOVIMIENTOS</t>
+  </si>
+  <si>
+    <t>OPCIONES METODOS DE PAGO</t>
+  </si>
+  <si>
+    <t>VUELTO CON TARJETAS</t>
+  </si>
+  <si>
+    <t>CONTADOR DE TIQUETS DEBITO/CREDITO</t>
+  </si>
+  <si>
+    <t>cierre de caja</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE NUMEROS NEGATIVOS y 0(corregir leyenda DICE SIEMPRE MAYOR AL STOCK)</t>
+  </si>
+  <si>
+    <t>ADMINISTRACION</t>
+  </si>
+  <si>
+    <t>AGREGAR USUARIO</t>
+  </si>
+  <si>
+    <t>SECTOR (indicar que numero es cada sector)</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>ADMINISTRACION (1)</t>
+  </si>
+  <si>
+    <t>VENTAS (2)</t>
+  </si>
+  <si>
+    <t>COMPRAS (3)</t>
+  </si>
+  <si>
+    <t>MOVIMIENTOS (4)</t>
+  </si>
+  <si>
+    <t>administracion</t>
+  </si>
+  <si>
+    <t>ventas</t>
+  </si>
+  <si>
+    <t>compras</t>
+  </si>
+  <si>
+    <t>movimientos</t>
+  </si>
+  <si>
+    <t>USUARIOS REALISTAS</t>
+  </si>
+  <si>
+    <t>USUARIOS VIRTUALES</t>
+  </si>
+  <si>
+    <t>alejandra</t>
+  </si>
+  <si>
+    <t>barrachina</t>
+  </si>
+  <si>
+    <t>federico</t>
+  </si>
+  <si>
+    <t>lamas</t>
+  </si>
+  <si>
+    <t>jose</t>
+  </si>
+  <si>
+    <t>gonzalo</t>
+  </si>
+  <si>
+    <t>gonzalez</t>
+  </si>
+  <si>
+    <t>ramiro</t>
+  </si>
+  <si>
+    <t>ramirez</t>
+  </si>
+  <si>
+    <t>gimena</t>
+  </si>
+  <si>
+    <t>gimenez</t>
+  </si>
+  <si>
+    <t>(backup)</t>
+  </si>
+  <si>
+    <t>coca cola x600ml</t>
+  </si>
+  <si>
+    <t>coca cola x1,5l</t>
+  </si>
+  <si>
+    <t>pepsi x600ml</t>
+  </si>
+  <si>
+    <t>mirinda x1,5l</t>
+  </si>
+  <si>
+    <t>block x40g</t>
+  </si>
+  <si>
+    <t>aguila minitorta</t>
+  </si>
+  <si>
+    <t>topline seven</t>
+  </si>
+  <si>
+    <t>lucky click</t>
+  </si>
+  <si>
+    <t>camel box</t>
+  </si>
+  <si>
+    <t>philip ks</t>
+  </si>
+  <si>
+    <t>marlboro box</t>
+  </si>
+  <si>
+    <t>levite x600ml</t>
+  </si>
+  <si>
+    <t>levite x1,5l</t>
+  </si>
+  <si>
+    <t>milka almendras</t>
+  </si>
+  <si>
+    <t>tri-shot</t>
+  </si>
+  <si>
+    <t>beldent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +543,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -511,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -682,11 +766,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -770,24 +936,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -811,24 +960,144 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1152,26 +1421,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1193,7 +1462,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1255,15 +1524,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1285,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1368,628 +1637,980 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC7CB8-BD08-475E-BF73-5156E3B0BE3D}">
-  <dimension ref="A2:J36"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="43" customWidth="1"/>
+    <col min="4" max="4" width="12" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="42"/>
+    <col min="17" max="16384" width="11" style="43"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="43"/>
+      <c r="K1" s="42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="G2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="H2" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="55">
+        <v>1</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="76">
+        <v>1001</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="65">
+        <v>12</v>
+      </c>
+      <c r="J3" s="65">
+        <v>36</v>
+      </c>
+      <c r="K3" s="77">
+        <f>I3*10</f>
+        <v>120</v>
+      </c>
+      <c r="L3" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="76">
+        <v>50</v>
+      </c>
+      <c r="N3" s="76">
+        <v>30</v>
+      </c>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="47">
+        <v>2</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="59">
+        <v>1002</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="66">
+        <v>8</v>
+      </c>
+      <c r="J4" s="66">
+        <v>48</v>
+      </c>
+      <c r="K4" s="70">
+        <f t="shared" ref="K4:K18" si="0">I4*10</f>
+        <v>80</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="59">
+        <v>50</v>
+      </c>
+      <c r="N4" s="59">
+        <v>60</v>
+      </c>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="47">
+        <v>3</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="59">
+        <v>2001</v>
+      </c>
+      <c r="G5" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="I5" s="66">
+        <v>12</v>
+      </c>
+      <c r="J5" s="66">
+        <v>12</v>
+      </c>
+      <c r="K5" s="70">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="59">
+        <v>50</v>
+      </c>
+      <c r="N5" s="59">
+        <v>30</v>
+      </c>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="48">
+        <v>4</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="59">
+        <v>2002</v>
+      </c>
+      <c r="G6" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="66">
+        <v>6</v>
+      </c>
+      <c r="J6" s="66">
+        <v>6</v>
+      </c>
+      <c r="K6" s="70">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="L6" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="59">
+        <v>50</v>
+      </c>
+      <c r="N6" s="59">
+        <v>55</v>
+      </c>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="59">
+        <v>3001</v>
+      </c>
+      <c r="G7" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="66">
+        <v>20</v>
+      </c>
+      <c r="J7" s="66">
+        <v>20</v>
+      </c>
+      <c r="K7" s="70">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="L7" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="59">
+        <v>80</v>
+      </c>
+      <c r="N7" s="59">
+        <v>20</v>
+      </c>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="59">
+        <v>3002</v>
+      </c>
+      <c r="G8" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="66">
+        <v>21</v>
+      </c>
+      <c r="J8" s="66">
+        <v>21</v>
+      </c>
+      <c r="K8" s="70">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="L8" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="59">
+        <v>80</v>
+      </c>
+      <c r="N8" s="59">
+        <v>20</v>
+      </c>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="46">
+        <v>34</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="59">
+        <v>3003</v>
+      </c>
+      <c r="G9" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="66">
+        <v>20</v>
+      </c>
+      <c r="J9" s="66">
+        <v>60</v>
+      </c>
+      <c r="K9" s="70">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="L9" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="59">
+        <v>80</v>
+      </c>
+      <c r="N9" s="59">
+        <v>15</v>
+      </c>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="47">
+        <v>29</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="59">
+        <v>5001</v>
+      </c>
+      <c r="G10" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="66">
+        <v>10</v>
+      </c>
+      <c r="J10" s="66">
+        <v>40</v>
+      </c>
+      <c r="K10" s="70">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L10" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="59">
+        <v>35</v>
+      </c>
+      <c r="N10" s="59">
+        <v>70</v>
+      </c>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="47">
+        <v>22</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="59">
+        <v>5002</v>
+      </c>
+      <c r="G11" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="66">
+        <v>10</v>
+      </c>
+      <c r="J11" s="66">
+        <v>20</v>
+      </c>
+      <c r="K11" s="70">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="59">
+        <v>35</v>
+      </c>
+      <c r="N11" s="59">
+        <v>70</v>
+      </c>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="47">
+        <v>60</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="59">
+        <v>6001</v>
+      </c>
+      <c r="G12" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="66">
+        <v>10</v>
+      </c>
+      <c r="J12" s="66">
+        <v>60</v>
+      </c>
+      <c r="K12" s="70">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="59">
+        <v>35</v>
+      </c>
+      <c r="N12" s="59">
+        <v>65</v>
+      </c>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="47">
+        <v>19</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="43"/>
+      <c r="F13" s="59">
+        <v>6002</v>
+      </c>
+      <c r="G13" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="66">
+        <v>10</v>
+      </c>
+      <c r="J13" s="66">
+        <v>60</v>
+      </c>
+      <c r="K13" s="70">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L13" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="59">
+        <v>35</v>
+      </c>
+      <c r="N13" s="59">
+        <v>70</v>
+      </c>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="48">
+        <v>21</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="60">
+        <v>8001</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="67">
+        <v>12</v>
+      </c>
+      <c r="J14" s="69">
+        <v>24</v>
+      </c>
+      <c r="K14" s="71">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="L14" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="60">
+        <v>50</v>
+      </c>
+      <c r="N14" s="60">
+        <v>25</v>
+      </c>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E15" s="43"/>
+      <c r="F15" s="60">
+        <v>8002</v>
+      </c>
+      <c r="G15" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="67">
+        <v>12</v>
+      </c>
+      <c r="J15" s="67">
         <v>48</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="K15" s="71">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="L15" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="60">
+        <v>50</v>
+      </c>
+      <c r="N15" s="60">
+        <v>40</v>
+      </c>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E16" s="43"/>
+      <c r="F16" s="59">
+        <v>9001</v>
+      </c>
+      <c r="G16" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="66">
+        <v>12</v>
+      </c>
+      <c r="J16" s="66">
+        <v>12</v>
+      </c>
+      <c r="K16" s="70">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="L16" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="59">
+        <v>80</v>
+      </c>
+      <c r="N16" s="59">
+        <v>120</v>
+      </c>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E17" s="43"/>
+      <c r="F17" s="59">
+        <v>9002</v>
+      </c>
+      <c r="G17" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="66">
+        <v>36</v>
+      </c>
+      <c r="J17" s="66">
+        <v>36</v>
+      </c>
+      <c r="K17" s="70">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="L17" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="59">
+        <v>80</v>
+      </c>
+      <c r="N17" s="59">
+        <v>20</v>
+      </c>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+    </row>
+    <row r="18" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="43"/>
+      <c r="F18" s="61">
+        <v>9003</v>
+      </c>
+      <c r="G18" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="68">
+        <v>20</v>
+      </c>
+      <c r="J18" s="68">
+        <v>60</v>
+      </c>
+      <c r="K18" s="72">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="L18" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="61">
+        <v>80</v>
+      </c>
+      <c r="N18" s="61">
+        <v>10</v>
+      </c>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+    </row>
+    <row r="19" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="43"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="5:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="43"/>
+      <c r="F20" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="I20" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="43"/>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E21" s="43"/>
+      <c r="F21" s="76">
+        <v>100</v>
+      </c>
+      <c r="G21" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>36</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="H21" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="65">
+        <v>21</v>
+      </c>
+      <c r="J21" s="65">
+        <v>2.5</v>
+      </c>
+      <c r="K21" s="76">
+        <v>1.3</v>
+      </c>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E22" s="43"/>
+      <c r="F22" s="59">
+        <v>200</v>
+      </c>
+      <c r="G22" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="66">
+        <v>21</v>
+      </c>
+      <c r="J22" s="66">
+        <v>3</v>
+      </c>
+      <c r="K22" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E23" s="43"/>
+      <c r="F23" s="59">
+        <v>300</v>
+      </c>
+      <c r="G23" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="1">
-        <v>50</v>
-      </c>
-      <c r="H3" s="1">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="J3" s="1">
-        <v>28.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
-        <v>48</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="I23" s="66">
+        <v>21</v>
+      </c>
+      <c r="J23" s="66">
+        <v>1.3</v>
+      </c>
+      <c r="K23" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E24" s="43"/>
+      <c r="F24" s="59">
+        <v>500</v>
+      </c>
+      <c r="G24" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="66">
+        <v>21</v>
+      </c>
+      <c r="J24" s="66">
+        <v>0.3</v>
+      </c>
+      <c r="K24" s="59">
+        <v>3.5</v>
+      </c>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E25" s="43"/>
+      <c r="F25" s="59">
+        <v>600</v>
+      </c>
+      <c r="G25" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="66">
+        <v>21</v>
+      </c>
+      <c r="J25" s="66">
+        <v>2</v>
+      </c>
+      <c r="K25" s="59">
+        <v>3.5</v>
+      </c>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E26" s="43"/>
+      <c r="F26" s="60">
+        <v>800</v>
+      </c>
+      <c r="G26" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="67">
+        <v>21</v>
+      </c>
+      <c r="J26" s="67"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+    </row>
+    <row r="27" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="43"/>
+      <c r="F27" s="61">
+        <v>900</v>
+      </c>
+      <c r="G27" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="1">
-        <v>50</v>
-      </c>
-      <c r="H4" s="1">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1">
-        <v>31.6</v>
-      </c>
-      <c r="J4" s="1">
-        <v>47.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="1">
-        <v>50</v>
-      </c>
-      <c r="H6" s="1">
-        <v>24</v>
-      </c>
-      <c r="I6" s="1">
-        <v>24.9</v>
-      </c>
-      <c r="J6" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
-        <v>3000</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="34">
-        <v>12</v>
-      </c>
-      <c r="E7" s="35">
-        <v>24</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="34">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
-        <v>3001</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="34">
-        <v>12</v>
-      </c>
-      <c r="E8" s="34">
-        <v>48</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="34">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4000</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>4001</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="I27" s="68">
         <v>21</v>
       </c>
-      <c r="E10" s="1">
-        <v>21</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>4002</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>5000</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="1">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>5001</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>5002</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1">
-        <v>60</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>6001</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="1">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1">
-        <v>60</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>6002</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="1">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1">
-        <v>60</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="1">
-        <v>35</v>
-      </c>
-      <c r="H16" s="1">
-        <v>40</v>
-      </c>
-      <c r="I16" s="1">
-        <v>49.49</v>
-      </c>
-      <c r="J16" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>7001</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="1">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1">
-        <v>40</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>7002</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="1">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="31"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>100</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>200</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>300</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>500</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>600</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
-        <v>800</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>900</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="30"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31">
-        <v>1234</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32">
-        <v>1231</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33">
-        <v>1232</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34">
-        <v>1233</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="30"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="30"/>
+      <c r="J27" s="68">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K27" s="61">
+        <v>3.5</v>
+      </c>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+    </row>
+    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1997,547 +2618,591 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12CEBBD-090D-4434-A119-3402FA7D8625}">
-  <dimension ref="C2:G50"/>
+  <dimension ref="C2:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="39" t="s">
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="94"/>
+      <c r="D18" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="94"/>
+      <c r="D30" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="E30" s="94"/>
+      <c r="F30" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="41" t="s">
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="94"/>
+      <c r="D39" s="89" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47" t="s">
+      <c r="E39" s="89"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="94"/>
+      <c r="D40" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="47"/>
-      <c r="D18" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="47"/>
-      <c r="D30" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="42" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="47"/>
-      <c r="D39" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="47"/>
-      <c r="D40" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="37" t="s">
-        <v>95</v>
+      <c r="E40" s="89"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="30" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="42"/>
+        <v>88</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="36"/>
+      <c r="G41" s="35" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="42" t="s">
-        <v>112</v>
+      <c r="C42" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="90"/>
+      <c r="F42" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="42" t="s">
-        <v>114</v>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" s="42" t="s">
-        <v>115</v>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45" s="42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" s="42" t="s">
-        <v>117</v>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" s="42" t="s">
-        <v>118</v>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F48" s="38"/>
-      <c r="G48" s="51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F49" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" s="51" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="G50" s="30"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="G50" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="G51" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="91"/>
+      <c r="D52" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="92"/>
+      <c r="G52" s="41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C42:C47"/>
+  <mergeCells count="18">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E7:E9"/>
@@ -2553,7 +3218,9 @@
     <mergeCell ref="D30:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D42:E47"/>
+    <mergeCell ref="C42:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D42:E51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2570,17 +3237,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
@@ -2588,25 +3255,25 @@
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>6</v>
@@ -2627,13 +3294,13 @@
         <v>8</v>
       </c>
       <c r="O3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="Q3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>

--- a/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
+++ b/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra\Documents\GitHub\TP-GESTION-PROGRAMACION-2\SG - CLASES SEPARADAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D15BD1F-9451-4AD8-A4D1-71DCB9EA2DF1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A60D6BC0-34FB-4AC8-91FD-E0C007C4600A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="1" xr2:uid="{A683A0A2-948E-478E-9454-D16ED83D3AB7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="2" xr2:uid="{A683A0A2-948E-478E-9454-D16ED83D3AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="PRECIO DE COSTO" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="MODIFICACIONES" sheetId="4" r:id="rId3"/>
     <sheet name="AGREGAR COMPRA" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="147">
   <si>
     <t xml:space="preserve">PRECIO </t>
   </si>
@@ -339,9 +339,6 @@
     <t>CONTADOR DE TIQUETS DEBITO/CREDITO</t>
   </si>
   <si>
-    <t>cierre de caja</t>
-  </si>
-  <si>
     <t>CANTIDAD DE NUMEROS NEGATIVOS y 0(corregir leyenda DICE SIEMPRE MAYOR AL STOCK)</t>
   </si>
   <si>
@@ -469,6 +466,9 @@
   </si>
   <si>
     <t>beldent</t>
+  </si>
+  <si>
+    <t>CIERRE DE CAJA</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -753,35 +753,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -852,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -938,9 +909,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -954,17 +922,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,26 +935,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1002,49 +962,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1054,50 +1014,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1421,26 +1391,26 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" customWidth="1"/>
-    <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1524,15 +1494,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1639,972 +1609,975 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC7CB8-BD08-475E-BF73-5156E3B0BE3D}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="43" customWidth="1"/>
-    <col min="4" max="4" width="12" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="58" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="42"/>
-    <col min="17" max="16384" width="11" style="43"/>
+    <col min="1" max="1" width="17.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="37"/>
+    <col min="15" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="43"/>
-      <c r="K1" s="42" t="s">
+      <c r="A1" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="38"/>
+      <c r="K1" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="50">
+        <v>1</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="71">
+        <v>1001</v>
+      </c>
+      <c r="G3" s="76" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="64" t="s">
+      <c r="H3" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="60">
+        <v>12</v>
+      </c>
+      <c r="J3" s="60">
         <v>36</v>
       </c>
-      <c r="K2" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="78" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="55">
-        <v>1</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="76">
-        <v>1001</v>
-      </c>
-      <c r="G3" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="65">
-        <v>12</v>
-      </c>
-      <c r="J3" s="65">
-        <v>36</v>
-      </c>
-      <c r="K3" s="77">
+      <c r="K3" s="72">
         <f>I3*10</f>
         <v>120</v>
       </c>
-      <c r="L3" s="76" t="s">
+      <c r="L3" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="76">
+      <c r="M3" s="71">
         <v>50</v>
       </c>
-      <c r="N3" s="76">
+      <c r="N3" s="71">
         <v>30</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="47">
+      <c r="A4" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="42">
         <v>2</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="59">
+      <c r="C4" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="54">
         <v>1002</v>
       </c>
-      <c r="G4" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" s="59" t="s">
+      <c r="G4" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="61">
         <v>8</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="61">
         <v>48</v>
       </c>
-      <c r="K4" s="70">
+      <c r="K4" s="65">
         <f t="shared" ref="K4:K18" si="0">I4*10</f>
         <v>80</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="59">
+      <c r="M4" s="54">
         <v>50</v>
       </c>
-      <c r="N4" s="59">
+      <c r="N4" s="54">
         <v>60</v>
       </c>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="47">
+      <c r="A5" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="42">
         <v>3</v>
       </c>
-      <c r="C5" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="59">
+      <c r="C5" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="54">
         <v>2001</v>
       </c>
-      <c r="G5" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="59" t="s">
+      <c r="G5" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="61">
         <v>12</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="61">
         <v>12</v>
       </c>
-      <c r="K5" s="70">
+      <c r="K5" s="65">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L5" s="59" t="s">
+      <c r="L5" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="54">
         <v>50</v>
       </c>
-      <c r="N5" s="59">
+      <c r="N5" s="54">
         <v>30</v>
       </c>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="48">
+      <c r="A6" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="43">
         <v>4</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="59">
+      <c r="C6" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="54">
         <v>2002</v>
       </c>
-      <c r="G6" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" s="59" t="s">
+      <c r="G6" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="61">
         <v>6</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="61">
         <v>6</v>
       </c>
-      <c r="K6" s="70">
+      <c r="K6" s="65">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="59">
+      <c r="M6" s="54">
         <v>50</v>
       </c>
-      <c r="N6" s="59">
+      <c r="N6" s="54">
         <v>55</v>
       </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="59">
+      <c r="A7" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="54">
         <v>3001</v>
       </c>
-      <c r="G7" s="82" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="59" t="s">
+      <c r="G7" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="61">
         <v>20</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="61">
         <v>20</v>
       </c>
-      <c r="K7" s="70">
+      <c r="K7" s="65">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="L7" s="59" t="s">
+      <c r="L7" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="59">
+      <c r="M7" s="54">
         <v>80</v>
       </c>
-      <c r="N7" s="59">
+      <c r="N7" s="54">
         <v>20</v>
       </c>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="59">
+      <c r="E8" s="38"/>
+      <c r="F8" s="54">
         <v>3002</v>
       </c>
-      <c r="G8" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="59" t="s">
+      <c r="G8" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="66">
+      <c r="I8" s="61">
         <v>21</v>
       </c>
-      <c r="J8" s="66">
+      <c r="J8" s="61">
         <v>21</v>
       </c>
-      <c r="K8" s="70">
+      <c r="K8" s="65">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="L8" s="62" t="s">
+      <c r="L8" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="59">
+      <c r="M8" s="54">
         <v>80</v>
       </c>
-      <c r="N8" s="59">
+      <c r="N8" s="54">
         <v>20</v>
       </c>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="46">
+      <c r="A9" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="41">
         <v>34</v>
       </c>
-      <c r="C9" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="59">
+      <c r="C9" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="54">
         <v>3003</v>
       </c>
-      <c r="G9" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="59" t="s">
+      <c r="G9" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="61">
         <v>20</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="61">
         <v>60</v>
       </c>
-      <c r="K9" s="70">
+      <c r="K9" s="65">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="L9" s="59" t="s">
+      <c r="L9" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="59">
+      <c r="M9" s="54">
         <v>80</v>
       </c>
-      <c r="N9" s="59">
+      <c r="N9" s="54">
         <v>15</v>
       </c>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="47">
+      <c r="A10" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="42">
         <v>29</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="59">
+      <c r="E10" s="38"/>
+      <c r="F10" s="54">
         <v>5001</v>
       </c>
-      <c r="G10" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="59" t="s">
+      <c r="G10" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="66">
+      <c r="I10" s="61">
         <v>10</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="61">
         <v>40</v>
       </c>
-      <c r="K10" s="70">
+      <c r="K10" s="65">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L10" s="59" t="s">
+      <c r="L10" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="59">
+      <c r="M10" s="54">
         <v>35</v>
       </c>
-      <c r="N10" s="59">
+      <c r="N10" s="54">
         <v>70</v>
       </c>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="47">
+      <c r="A11" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="42">
         <v>22</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="59">
+      <c r="E11" s="38"/>
+      <c r="F11" s="54">
         <v>5002</v>
       </c>
-      <c r="G11" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="59" t="s">
+      <c r="G11" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="66">
+      <c r="I11" s="61">
         <v>10</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="61">
         <v>20</v>
       </c>
-      <c r="K11" s="70">
+      <c r="K11" s="65">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L11" s="59" t="s">
+      <c r="L11" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="59">
+      <c r="M11" s="54">
         <v>35</v>
       </c>
-      <c r="N11" s="59">
+      <c r="N11" s="54">
         <v>70</v>
       </c>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="47">
+      <c r="A12" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="42">
         <v>60</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="59">
+      <c r="E12" s="38"/>
+      <c r="F12" s="54">
         <v>6001</v>
       </c>
-      <c r="G12" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="59" t="s">
+      <c r="G12" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="66">
+      <c r="I12" s="61">
         <v>10</v>
       </c>
-      <c r="J12" s="66">
+      <c r="J12" s="61">
         <v>60</v>
       </c>
-      <c r="K12" s="70">
+      <c r="K12" s="65">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L12" s="73" t="s">
+      <c r="L12" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="59">
+      <c r="M12" s="54">
         <v>35</v>
       </c>
-      <c r="N12" s="59">
+      <c r="N12" s="54">
         <v>65</v>
       </c>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="47">
+      <c r="A13" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="42">
         <v>19</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="59">
+      <c r="E13" s="38"/>
+      <c r="F13" s="54">
         <v>6002</v>
       </c>
-      <c r="G13" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="59" t="s">
+      <c r="G13" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="66">
+      <c r="I13" s="61">
         <v>10</v>
       </c>
-      <c r="J13" s="66">
+      <c r="J13" s="61">
         <v>60</v>
       </c>
-      <c r="K13" s="70">
+      <c r="K13" s="65">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L13" s="59" t="s">
+      <c r="L13" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="M13" s="59">
+      <c r="M13" s="54">
         <v>35</v>
       </c>
-      <c r="N13" s="59">
+      <c r="N13" s="54">
         <v>70</v>
       </c>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="48">
+      <c r="A14" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="43">
         <v>21</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="60">
+      <c r="E14" s="38"/>
+      <c r="F14" s="55">
         <v>8001</v>
       </c>
-      <c r="G14" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" s="60" t="s">
+      <c r="G14" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="62">
         <v>12</v>
       </c>
-      <c r="J14" s="69">
+      <c r="J14" s="64">
         <v>24</v>
       </c>
-      <c r="K14" s="71">
+      <c r="K14" s="66">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L14" s="60" t="s">
+      <c r="L14" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M14" s="55">
         <v>50</v>
       </c>
-      <c r="N14" s="60">
+      <c r="N14" s="55">
         <v>25</v>
       </c>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="43"/>
-      <c r="F15" s="60">
+      <c r="E15" s="38"/>
+      <c r="F15" s="55">
         <v>8002</v>
       </c>
-      <c r="G15" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="H15" s="60" t="s">
+      <c r="G15" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="62">
         <v>12</v>
       </c>
-      <c r="J15" s="67">
+      <c r="J15" s="62">
         <v>48</v>
       </c>
-      <c r="K15" s="71">
+      <c r="K15" s="66">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="60">
+      <c r="M15" s="55">
         <v>50</v>
       </c>
-      <c r="N15" s="60">
+      <c r="N15" s="55">
         <v>40</v>
       </c>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E16" s="43"/>
-      <c r="F16" s="59">
+      <c r="E16" s="38"/>
+      <c r="F16" s="54">
         <v>9001</v>
       </c>
-      <c r="G16" s="82" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="59" t="s">
+      <c r="G16" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="66">
+      <c r="I16" s="61">
         <v>12</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="61">
         <v>12</v>
       </c>
-      <c r="K16" s="70">
+      <c r="K16" s="65">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L16" s="59" t="s">
+      <c r="L16" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="59">
+      <c r="M16" s="54">
         <v>80</v>
       </c>
-      <c r="N16" s="59">
+      <c r="N16" s="54">
         <v>120</v>
       </c>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="43"/>
-      <c r="F17" s="59">
+      <c r="E17" s="38"/>
+      <c r="F17" s="54">
         <v>9002</v>
       </c>
-      <c r="G17" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="59" t="s">
+      <c r="G17" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="61">
         <v>36</v>
       </c>
-      <c r="J17" s="66">
+      <c r="J17" s="61">
         <v>36</v>
       </c>
-      <c r="K17" s="70">
+      <c r="K17" s="65">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="L17" s="59" t="s">
+      <c r="L17" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="59">
+      <c r="M17" s="54">
         <v>80</v>
       </c>
-      <c r="N17" s="59">
+      <c r="N17" s="54">
         <v>20</v>
       </c>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
     </row>
     <row r="18" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="43"/>
-      <c r="F18" s="61">
+      <c r="E18" s="38"/>
+      <c r="F18" s="56">
         <v>9003</v>
       </c>
-      <c r="G18" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="61" t="s">
+      <c r="G18" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="68">
+      <c r="I18" s="63">
         <v>20</v>
       </c>
-      <c r="J18" s="68">
+      <c r="J18" s="63">
         <v>60</v>
       </c>
-      <c r="K18" s="72">
+      <c r="K18" s="67">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="L18" s="61" t="s">
+      <c r="L18" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="61">
+      <c r="M18" s="56">
         <v>80</v>
       </c>
-      <c r="N18" s="61">
+      <c r="N18" s="56">
         <v>10</v>
       </c>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
     </row>
     <row r="19" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="43"/>
+      <c r="E19" s="38"/>
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="5:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="43"/>
-      <c r="F20" s="78" t="s">
+      <c r="E20" s="38"/>
+      <c r="F20" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="78" t="s">
+      <c r="G20" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="78" t="s">
+      <c r="H20" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="64" t="s">
+      <c r="I20" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="64" t="s">
+      <c r="J20" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" s="43"/>
+      <c r="K20" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="38"/>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="43"/>
-      <c r="F21" s="76">
+      <c r="E21" s="38"/>
+      <c r="F21" s="71">
         <v>100</v>
       </c>
-      <c r="G21" s="81" t="s">
+      <c r="G21" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="76" t="s">
+      <c r="H21" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="65">
+      <c r="I21" s="60">
         <v>21</v>
       </c>
-      <c r="J21" s="65">
+      <c r="J21" s="60">
         <v>2.5</v>
       </c>
-      <c r="K21" s="76">
+      <c r="K21" s="71">
         <v>1.3</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="43"/>
-      <c r="F22" s="59">
+      <c r="E22" s="38"/>
+      <c r="F22" s="54">
         <v>200</v>
       </c>
-      <c r="G22" s="82" t="s">
+      <c r="G22" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="66">
+      <c r="I22" s="61">
         <v>21</v>
       </c>
-      <c r="J22" s="66">
+      <c r="J22" s="61">
         <v>3</v>
       </c>
-      <c r="K22" s="59">
+      <c r="K22" s="54">
         <v>2.5</v>
       </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="43"/>
-      <c r="F23" s="59">
+      <c r="E23" s="38"/>
+      <c r="F23" s="54">
         <v>300</v>
       </c>
-      <c r="G23" s="82" t="s">
+      <c r="G23" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="66">
+      <c r="I23" s="61">
         <v>21</v>
       </c>
-      <c r="J23" s="66">
+      <c r="J23" s="61">
         <v>1.3</v>
       </c>
-      <c r="K23" s="59">
+      <c r="K23" s="54">
         <v>2.5</v>
       </c>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="43"/>
-      <c r="F24" s="59">
+      <c r="E24" s="38"/>
+      <c r="F24" s="54">
         <v>500</v>
       </c>
-      <c r="G24" s="82" t="s">
+      <c r="G24" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="59" t="s">
+      <c r="H24" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="66">
+      <c r="I24" s="61">
         <v>21</v>
       </c>
-      <c r="J24" s="66">
+      <c r="J24" s="61">
         <v>0.3</v>
       </c>
-      <c r="K24" s="59">
+      <c r="K24" s="54">
         <v>3.5</v>
       </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="43"/>
-      <c r="F25" s="59">
+      <c r="E25" s="38"/>
+      <c r="F25" s="54">
         <v>600</v>
       </c>
-      <c r="G25" s="82" t="s">
+      <c r="G25" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="66">
+      <c r="I25" s="61">
         <v>21</v>
       </c>
-      <c r="J25" s="66">
+      <c r="J25" s="61">
         <v>2</v>
       </c>
-      <c r="K25" s="59">
+      <c r="K25" s="54">
         <v>3.5</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E26" s="43"/>
-      <c r="F26" s="60">
+      <c r="E26" s="38"/>
+      <c r="F26" s="55">
         <v>800</v>
       </c>
-      <c r="G26" s="83" t="s">
+      <c r="G26" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="60" t="s">
+      <c r="H26" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="62">
         <v>21</v>
       </c>
-      <c r="J26" s="67"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
     </row>
     <row r="27" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="43"/>
-      <c r="F27" s="61">
+      <c r="E27" s="38"/>
+      <c r="F27" s="56">
         <v>900</v>
       </c>
-      <c r="G27" s="84" t="s">
+      <c r="G27" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="63" t="s">
+      <c r="H27" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="68">
+      <c r="I27" s="63">
         <v>21</v>
       </c>
-      <c r="J27" s="68">
+      <c r="J27" s="63">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K27" s="61">
+      <c r="K27" s="56">
         <v>3.5</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
+      <c r="E28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
+      <c r="E29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2620,69 +2593,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12CEBBD-090D-4434-A119-3402FA7D8625}">
   <dimension ref="C2:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:E51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="8.375" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="7" t="s">
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="91" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="30" t="s">
@@ -2690,23 +2663,23 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="7" t="s">
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="91" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="30" t="s">
@@ -2714,10 +2687,10 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="7" t="s">
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="91" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="30" t="s">
@@ -2725,10 +2698,10 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="7" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="91" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="30" t="s">
@@ -2736,10 +2709,10 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="7" t="s">
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="91" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="30" t="s">
@@ -2747,12 +2720,12 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94" t="s">
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="91" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="30" t="s">
@@ -2760,10 +2733,10 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="7" t="s">
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="91" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -2771,23 +2744,23 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="36" t="s">
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94" t="s">
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="91" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="30" t="s">
@@ -2795,30 +2768,30 @@
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="7" t="s">
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="7"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="91"/>
       <c r="G16" s="30" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="7" t="s">
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="91" t="s">
         <v>48</v>
       </c>
       <c r="G17" s="30" t="s">
@@ -2826,114 +2799,114 @@
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="94"/>
-      <c r="D18" s="94" t="s">
+      <c r="C18" s="87"/>
+      <c r="D18" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="95" t="s">
+      <c r="E18" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="91"/>
       <c r="G18" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="91"/>
       <c r="G19" s="30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94" t="s">
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="7"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="30" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="7"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94" t="s">
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="91"/>
       <c r="G23" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="7"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="91"/>
       <c r="G24" s="30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="36" t="s">
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="91"/>
       <c r="G25" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94" t="s">
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="91"/>
       <c r="G26" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="37" t="s">
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="34" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="37" t="s">
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="92" t="s">
         <v>48</v>
       </c>
       <c r="G28" s="30" t="s">
@@ -2941,21 +2914,21 @@
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="37"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="92"/>
       <c r="G29" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="94"/>
-      <c r="D30" s="94" t="s">
+      <c r="C30" s="87"/>
+      <c r="D30" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="94"/>
-      <c r="F30" s="37" t="s">
+      <c r="E30" s="87"/>
+      <c r="F30" s="92" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="30" t="s">
@@ -2963,10 +2936,10 @@
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="37" t="s">
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="92" t="s">
         <v>48</v>
       </c>
       <c r="G31" s="30" t="s">
@@ -2974,235 +2947,260 @@
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="37" t="s">
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="34" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="37" t="s">
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="35" t="s">
+      <c r="G33" s="34" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="35" t="s">
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="34" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="35" t="s">
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="34" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="35" t="s">
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="34" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="35" t="s">
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="35" t="s">
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="34" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="94"/>
+      <c r="C39" s="87"/>
       <c r="D39" s="89" t="s">
         <v>76</v>
       </c>
       <c r="E39" s="89"/>
-      <c r="F39" s="37"/>
+      <c r="F39" s="81" t="s">
+        <v>48</v>
+      </c>
       <c r="G39" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="94"/>
+      <c r="C40" s="87"/>
       <c r="D40" s="89" t="s">
         <v>77</v>
       </c>
       <c r="E40" s="89"/>
-      <c r="F40" s="37"/>
+      <c r="F40" s="81" t="s">
+        <v>48</v>
+      </c>
       <c r="G40" s="30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+      <c r="C41" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="E41" t="s">
+      <c r="D41" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="35" t="s">
+      <c r="E41" s="89"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="90" t="s">
+      <c r="C42" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="90" t="s">
+      <c r="D42" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="90"/>
-      <c r="F42" s="36" t="s">
+      <c r="E42" s="87"/>
+      <c r="F42" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="35" t="s">
+      <c r="G42" s="34" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="36" t="s">
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="35" t="s">
+      <c r="G43" s="34" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="36" t="s">
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G44" s="35" t="s">
+      <c r="G44" s="34" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="36" t="s">
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="35" t="s">
+      <c r="G45" s="34" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="46" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="36" t="s">
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="35" t="s">
+      <c r="G46" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="36" t="s">
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G47" s="35" t="s">
+      <c r="G47" s="34" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="39" t="s">
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="93" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="87"/>
+      <c r="D52" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" s="89"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="30" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="40" t="s">
+      <c r="D53" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="89"/>
+      <c r="F53" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
-      <c r="G50" s="29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
-      <c r="G51" s="41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="91"/>
-      <c r="D52" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="92"/>
-      <c r="G52" s="41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="G53" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="G53" s="41" t="s">
-        <v>107</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="C42:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D42:E51"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D53:E53"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E7:E9"/>
@@ -3218,9 +3216,6 @@
     <mergeCell ref="D30:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="C42:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D42:E51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3237,17 +3232,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">

--- a/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
+++ b/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra\Documents\GitHub\TP-GESTION-PROGRAMACION-2\SG - CLASES SEPARADAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A60D6BC0-34FB-4AC8-91FD-E0C007C4600A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F1617A31-E8C6-4F58-BD18-42EA5F5F9C98}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="2" xr2:uid="{A683A0A2-948E-478E-9454-D16ED83D3AB7}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="148">
   <si>
     <t xml:space="preserve">PRECIO </t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>CIERRE DE CAJA</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1032,6 +1035,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1042,32 +1058,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1402,15 +1405,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1494,15 +1497,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1634,12 +1637,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="90"/>
       <c r="E1" s="38"/>
       <c r="K1" s="37" t="s">
         <v>129</v>
@@ -1874,12 +1877,12 @@
       <c r="P6" s="54"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="38"/>
       <c r="F7" s="54">
         <v>3001</v>
@@ -2593,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12CEBBD-090D-4434-A119-3402FA7D8625}">
   <dimension ref="C2:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2609,13 +2612,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="31" t="s">
@@ -2635,16 +2638,16 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="83" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="34" t="s">
@@ -2652,10 +2655,10 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="91" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="83" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="30" t="s">
@@ -2663,10 +2666,10 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="91" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="83" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="34" t="s">
@@ -2674,12 +2677,12 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="91" t="s">
+      <c r="F7" s="83" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="30" t="s">
@@ -2687,10 +2690,10 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="91" t="s">
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="83" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="30" t="s">
@@ -2698,10 +2701,10 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="91" t="s">
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="83" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="30" t="s">
@@ -2709,10 +2712,10 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="81"/>
-      <c r="F10" s="91" t="s">
+      <c r="F10" s="83" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="30" t="s">
@@ -2720,12 +2723,12 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="91" t="s">
+      <c r="F11" s="83" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="30" t="s">
@@ -2733,10 +2736,10 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="91" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="83" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -2744,23 +2747,23 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
       <c r="E13" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="91"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87" t="s">
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="91" t="s">
+      <c r="F14" s="83" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="30" t="s">
@@ -2768,10 +2771,10 @@
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="91" t="s">
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="83" t="s">
         <v>48</v>
       </c>
       <c r="G15" s="34" t="s">
@@ -2779,19 +2782,19 @@
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="30" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="91" t="s">
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="83" t="s">
         <v>48</v>
       </c>
       <c r="G17" s="30" t="s">
@@ -2799,103 +2802,117 @@
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="87"/>
-      <c r="D18" s="87" t="s">
+      <c r="C18" s="91"/>
+      <c r="D18" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="91"/>
+      <c r="F18" s="83" t="s">
+        <v>147</v>
+      </c>
       <c r="G18" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87" t="s">
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="91"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="83" t="s">
+        <v>147</v>
+      </c>
       <c r="G21" s="30" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="83" t="s">
+        <v>147</v>
+      </c>
       <c r="G22" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87" t="s">
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="91"/>
+      <c r="F23" s="83" t="s">
+        <v>147</v>
+      </c>
       <c r="G23" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="83" t="s">
+        <v>147</v>
+      </c>
       <c r="G24" s="30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="91"/>
+      <c r="F25" s="83" t="s">
+        <v>147</v>
+      </c>
       <c r="G25" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87" t="s">
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="91"/>
+      <c r="F26" s="83" t="s">
+        <v>147</v>
+      </c>
       <c r="G26" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="92" t="s">
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="84" t="s">
         <v>48</v>
       </c>
       <c r="G27" s="34" t="s">
@@ -2903,10 +2920,10 @@
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="92" t="s">
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="84" t="s">
         <v>48</v>
       </c>
       <c r="G28" s="30" t="s">
@@ -2914,21 +2931,21 @@
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="92"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="84"/>
       <c r="G29" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="87"/>
-      <c r="D30" s="87" t="s">
+      <c r="C30" s="91"/>
+      <c r="D30" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="92" t="s">
+      <c r="E30" s="91"/>
+      <c r="F30" s="84" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="30" t="s">
@@ -2936,10 +2953,10 @@
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="92" t="s">
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="84" t="s">
         <v>48</v>
       </c>
       <c r="G31" s="30" t="s">
@@ -2947,10 +2964,10 @@
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="92" t="s">
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="84" t="s">
         <v>48</v>
       </c>
       <c r="G32" s="34" t="s">
@@ -2958,10 +2975,10 @@
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="92" t="s">
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="84" t="s">
         <v>48</v>
       </c>
       <c r="G33" s="34" t="s">
@@ -2969,9 +2986,9 @@
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
       <c r="F34" s="81" t="s">
         <v>48</v>
       </c>
@@ -2980,19 +2997,19 @@
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
       <c r="F35" s="36"/>
       <c r="G35" s="34" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="90" t="s">
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="82" t="s">
         <v>48</v>
       </c>
       <c r="G36" s="34" t="s">
@@ -3000,10 +3017,10 @@
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="90" t="s">
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="82" t="s">
         <v>48</v>
       </c>
       <c r="G37" s="34" t="s">
@@ -3011,10 +3028,10 @@
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="90" t="s">
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="82" t="s">
         <v>48</v>
       </c>
       <c r="G38" s="34" t="s">
@@ -3022,11 +3039,11 @@
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="87"/>
-      <c r="D39" s="89" t="s">
+      <c r="C39" s="91"/>
+      <c r="D39" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="89"/>
+      <c r="E39" s="92"/>
       <c r="F39" s="81" t="s">
         <v>48</v>
       </c>
@@ -3035,11 +3052,11 @@
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="87"/>
-      <c r="D40" s="89" t="s">
+      <c r="C40" s="91"/>
+      <c r="D40" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="89"/>
+      <c r="E40" s="92"/>
       <c r="F40" s="81" t="s">
         <v>48</v>
       </c>
@@ -3051,23 +3068,25 @@
       <c r="C41" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="89" t="s">
+      <c r="D41" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="89"/>
-      <c r="F41" s="35"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="35" t="s">
+        <v>48</v>
+      </c>
       <c r="G41" s="34" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="87" t="s">
+      <c r="C42" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="87" t="s">
+      <c r="D42" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="87"/>
+      <c r="E42" s="91"/>
       <c r="F42" s="35" t="s">
         <v>48</v>
       </c>
@@ -3076,9 +3095,9 @@
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="91"/>
       <c r="F43" s="35" t="s">
         <v>48</v>
       </c>
@@ -3087,9 +3106,9 @@
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="91"/>
       <c r="F44" s="35" t="s">
         <v>48</v>
       </c>
@@ -3098,9 +3117,9 @@
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
       <c r="F45" s="35" t="s">
         <v>48</v>
       </c>
@@ -3109,9 +3128,9 @@
       </c>
     </row>
     <row r="46" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
       <c r="F46" s="35" t="s">
         <v>48</v>
       </c>
@@ -3120,9 +3139,9 @@
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
       <c r="F47" s="35" t="s">
         <v>48</v>
       </c>
@@ -3131,51 +3150,51 @@
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
       <c r="F48" s="81"/>
-      <c r="G48" s="93" t="s">
+      <c r="G48" s="85" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="94" t="s">
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="93" t="s">
+      <c r="G49" s="85" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
       <c r="F50" s="30"/>
       <c r="G50" s="34" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
       <c r="F51" s="30"/>
-      <c r="G51" s="93" t="s">
+      <c r="G51" s="85" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="87"/>
-      <c r="D52" s="89" t="s">
+      <c r="C52" s="91"/>
+      <c r="D52" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="E52" s="89"/>
+      <c r="E52" s="92"/>
       <c r="F52" s="30"/>
-      <c r="G52" s="93" t="s">
+      <c r="G52" s="85" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3183,24 +3202,19 @@
       <c r="C53" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="89" t="s">
+      <c r="D53" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="89"/>
+      <c r="E53" s="92"/>
       <c r="F53" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="G53" s="93" t="s">
+      <c r="G53" s="85" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C42:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D42:E51"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D53:E53"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E7:E9"/>
@@ -3216,6 +3230,11 @@
     <mergeCell ref="D30:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
+    <mergeCell ref="C42:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D42:E51"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D53:E53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
+++ b/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra\Documents\GitHub\TP-GESTION-PROGRAMACION-2\SG - CLASES SEPARADAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F1617A31-E8C6-4F58-BD18-42EA5F5F9C98}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5C676138-57C6-44C0-9028-FD6E67DA5D3B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="2" xr2:uid="{A683A0A2-948E-478E-9454-D16ED83D3AB7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="1" xr2:uid="{A683A0A2-948E-478E-9454-D16ED83D3AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="PRECIO DE COSTO" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t xml:space="preserve">CODIGO </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUCTO </t>
-  </si>
-  <si>
     <t>RUBRO</t>
   </si>
   <si>
@@ -472,6 +469,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>descripcion</t>
   </si>
 </sst>
 </file>
@@ -826,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1060,17 +1060,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1435,7 +1438,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1527,7 +1530,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1610,982 +1613,982 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC7CB8-BD08-475E-BF73-5156E3B0BE3D}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="B1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="37"/>
-    <col min="15" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="38"/>
+    <col min="11" max="11" width="8.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="37"/>
+    <col min="16" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="16384" width="11" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="89"/>
+    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="88" t="s">
+        <v>116</v>
+      </c>
       <c r="C1" s="89"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="38"/>
-      <c r="K1" s="37" t="s">
+      <c r="D1" s="89"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="38"/>
+      <c r="L1" s="37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="50">
+        <v>1</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="71">
+        <v>1001</v>
+      </c>
+      <c r="H3" s="76" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="73" t="s">
+      <c r="I3" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="60">
+        <v>12</v>
+      </c>
+      <c r="K3" s="60">
+        <v>36</v>
+      </c>
+      <c r="L3" s="72">
+        <f>J3*10</f>
+        <v>120</v>
+      </c>
+      <c r="M3" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="71">
+        <v>50</v>
+      </c>
+      <c r="O3" s="71">
+        <v>30</v>
+      </c>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="42">
+        <v>2</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="54">
+        <v>1002</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="61">
+        <v>8</v>
+      </c>
+      <c r="K4" s="61">
+        <v>48</v>
+      </c>
+      <c r="L4" s="65">
+        <f t="shared" ref="L4:L18" si="0">J4*10</f>
+        <v>80</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="54">
+        <v>50</v>
+      </c>
+      <c r="O4" s="54">
+        <v>60</v>
+      </c>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="42">
+        <v>3</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="54">
+        <v>2001</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="54" t="s">
         <v>27</v>
-      </c>
-      <c r="I2" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="73" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="50">
-        <v>1</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="71">
-        <v>1001</v>
-      </c>
-      <c r="G3" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="60">
-        <v>12</v>
-      </c>
-      <c r="J3" s="60">
-        <v>36</v>
-      </c>
-      <c r="K3" s="72">
-        <f>I3*10</f>
-        <v>120</v>
-      </c>
-      <c r="L3" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="71">
-        <v>50</v>
-      </c>
-      <c r="N3" s="71">
-        <v>30</v>
-      </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="42">
-        <v>2</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="54">
-        <v>1002</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="61">
-        <v>8</v>
-      </c>
-      <c r="J4" s="61">
-        <v>48</v>
-      </c>
-      <c r="K4" s="65">
-        <f t="shared" ref="K4:K18" si="0">I4*10</f>
-        <v>80</v>
-      </c>
-      <c r="L4" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="54">
-        <v>50</v>
-      </c>
-      <c r="N4" s="54">
-        <v>60</v>
-      </c>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="42">
-        <v>3</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="54">
-        <v>2001</v>
-      </c>
-      <c r="G5" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="61">
-        <v>12</v>
       </c>
       <c r="J5" s="61">
         <v>12</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="61">
+        <v>12</v>
+      </c>
+      <c r="L5" s="65">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L5" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="54">
+      <c r="M5" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="54">
         <v>50</v>
       </c>
-      <c r="N5" s="54">
+      <c r="O5" s="54">
         <v>30</v>
       </c>
-      <c r="O5" s="69"/>
       <c r="P5" s="69"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="43">
+      <c r="Q5" s="69"/>
+    </row>
+    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="43">
         <v>4</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>115</v>
-      </c>
       <c r="D6" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="54">
+        <v>114</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="54">
         <v>2002</v>
       </c>
-      <c r="G6" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="61">
-        <v>6</v>
+      <c r="H6" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>27</v>
       </c>
       <c r="J6" s="61">
         <v>6</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="61">
+        <v>6</v>
+      </c>
+      <c r="L6" s="65">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="L6" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="54">
+      <c r="M6" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="54">
         <v>50</v>
       </c>
-      <c r="N6" s="54">
+      <c r="O6" s="54">
         <v>55</v>
       </c>
-      <c r="O6" s="54"/>
       <c r="P6" s="54"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="89"/>
+      <c r="Q6" s="54"/>
+    </row>
+    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="88" t="s">
+        <v>115</v>
+      </c>
       <c r="C7" s="89"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="54">
+      <c r="D7" s="89"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="54">
         <v>3001</v>
       </c>
-      <c r="G7" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="61">
-        <v>20</v>
+      <c r="H7" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>30</v>
       </c>
       <c r="J7" s="61">
         <v>20</v>
       </c>
-      <c r="K7" s="65">
+      <c r="K7" s="61">
+        <v>20</v>
+      </c>
+      <c r="L7" s="65">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="L7" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="54">
+      <c r="M7" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="54">
         <v>80</v>
       </c>
-      <c r="N7" s="54">
+      <c r="O7" s="54">
         <v>20</v>
       </c>
-      <c r="O7" s="69"/>
       <c r="P7" s="69"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>17</v>
+      <c r="Q7" s="69"/>
+    </row>
+    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="48" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="54">
+      <c r="F8" s="38"/>
+      <c r="G8" s="54">
         <v>3002</v>
       </c>
-      <c r="G8" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="61">
-        <v>21</v>
+      <c r="H8" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>30</v>
       </c>
       <c r="J8" s="61">
         <v>21</v>
       </c>
-      <c r="K8" s="65">
+      <c r="K8" s="61">
+        <v>21</v>
+      </c>
+      <c r="L8" s="65">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="L8" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="54">
+      <c r="M8" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="54">
         <v>80</v>
       </c>
-      <c r="N8" s="54">
+      <c r="O8" s="54">
         <v>20</v>
       </c>
-      <c r="O8" s="69"/>
       <c r="P8" s="69"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="41">
+      <c r="Q8" s="69"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="41">
         <v>34</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>122</v>
-      </c>
       <c r="D9" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="54">
+        <v>121</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="54">
         <v>3003</v>
       </c>
-      <c r="G9" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="61">
+      <c r="H9" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="61">
         <v>20</v>
       </c>
-      <c r="J9" s="61">
+      <c r="K9" s="61">
         <v>60</v>
       </c>
-      <c r="K9" s="65">
+      <c r="L9" s="65">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="L9" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="54">
+      <c r="M9" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="54">
         <v>80</v>
       </c>
-      <c r="N9" s="54">
+      <c r="O9" s="54">
         <v>15</v>
       </c>
-      <c r="O9" s="69"/>
       <c r="P9" s="69"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="42">
+      <c r="Q9" s="69"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="42">
         <v>29</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="D10" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="54">
+      <c r="F10" s="38"/>
+      <c r="G10" s="54">
         <v>5001</v>
       </c>
-      <c r="G10" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="61">
+      <c r="H10" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="61">
         <v>10</v>
       </c>
-      <c r="J10" s="61">
+      <c r="K10" s="61">
         <v>40</v>
       </c>
-      <c r="K10" s="65">
+      <c r="L10" s="65">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L10" s="54" t="s">
+      <c r="M10" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="54">
+        <v>35</v>
+      </c>
+      <c r="O10" s="54">
+        <v>70</v>
+      </c>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="42">
+        <v>22</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="54">
+        <v>5002</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="54">
-        <v>35</v>
-      </c>
-      <c r="N10" s="54">
-        <v>70</v>
-      </c>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="42">
-        <v>22</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="54">
-        <v>5002</v>
-      </c>
-      <c r="G11" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="61">
+      <c r="J11" s="61">
         <v>10</v>
       </c>
-      <c r="J11" s="61">
+      <c r="K11" s="61">
         <v>20</v>
       </c>
-      <c r="K11" s="65">
+      <c r="L11" s="65">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L11" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="54">
+      <c r="M11" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="54">
         <v>35</v>
       </c>
-      <c r="N11" s="54">
+      <c r="O11" s="54">
         <v>70</v>
       </c>
-      <c r="O11" s="69"/>
       <c r="P11" s="69"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="42">
+      <c r="Q11" s="69"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="42">
         <v>60</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="D12" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="54">
+      <c r="F12" s="38"/>
+      <c r="G12" s="54">
         <v>6001</v>
       </c>
-      <c r="G12" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="61">
+      <c r="H12" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="61">
         <v>10</v>
       </c>
-      <c r="J12" s="61">
+      <c r="K12" s="61">
         <v>60</v>
       </c>
-      <c r="K12" s="65">
+      <c r="L12" s="65">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L12" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="54">
+      <c r="M12" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="54">
         <v>35</v>
       </c>
-      <c r="N12" s="54">
+      <c r="O12" s="54">
         <v>65</v>
       </c>
-      <c r="O12" s="69"/>
       <c r="P12" s="69"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="42">
+      <c r="Q12" s="69"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="42">
         <v>19</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="D13" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="54">
+      <c r="F13" s="38"/>
+      <c r="G13" s="54">
         <v>6002</v>
       </c>
-      <c r="G13" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="61">
+      <c r="H13" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="61">
         <v>10</v>
       </c>
-      <c r="J13" s="61">
+      <c r="K13" s="61">
         <v>60</v>
       </c>
-      <c r="K13" s="65">
+      <c r="L13" s="65">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L13" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="54">
+      <c r="M13" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="54">
         <v>35</v>
       </c>
-      <c r="N13" s="54">
+      <c r="O13" s="54">
         <v>70</v>
       </c>
-      <c r="O13" s="54"/>
       <c r="P13" s="54"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="43">
+      <c r="Q13" s="54"/>
+    </row>
+    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="43">
         <v>21</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="D14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="55">
+      <c r="F14" s="38"/>
+      <c r="G14" s="55">
         <v>8001</v>
       </c>
-      <c r="G14" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="62">
+      <c r="H14" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="62">
         <v>12</v>
       </c>
-      <c r="J14" s="64">
+      <c r="K14" s="64">
         <v>24</v>
       </c>
-      <c r="K14" s="66">
+      <c r="L14" s="66">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L14" s="55" t="s">
+      <c r="M14" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="55">
+        <v>50</v>
+      </c>
+      <c r="O14" s="55">
+        <v>25</v>
+      </c>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F15" s="38"/>
+      <c r="G15" s="55">
+        <v>8002</v>
+      </c>
+      <c r="H15" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="55">
-        <v>50</v>
-      </c>
-      <c r="N14" s="55">
-        <v>25</v>
-      </c>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="38"/>
-      <c r="F15" s="55">
-        <v>8002</v>
-      </c>
-      <c r="G15" s="78" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="62">
+      <c r="J15" s="62">
         <v>12</v>
       </c>
-      <c r="J15" s="62">
+      <c r="K15" s="62">
         <v>48</v>
       </c>
-      <c r="K15" s="66">
+      <c r="L15" s="66">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L15" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="55">
+      <c r="M15" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="55">
         <v>50</v>
       </c>
-      <c r="N15" s="55">
+      <c r="O15" s="55">
         <v>40</v>
       </c>
-      <c r="O15" s="66"/>
       <c r="P15" s="66"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E16" s="38"/>
-      <c r="F16" s="54">
+      <c r="Q15" s="66"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F16" s="38"/>
+      <c r="G16" s="54">
         <v>9001</v>
       </c>
-      <c r="G16" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="61">
-        <v>12</v>
+      <c r="H16" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>32</v>
       </c>
       <c r="J16" s="61">
         <v>12</v>
       </c>
-      <c r="K16" s="65">
+      <c r="K16" s="61">
+        <v>12</v>
+      </c>
+      <c r="L16" s="65">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="L16" s="54" t="s">
+      <c r="M16" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="54">
+        <v>80</v>
+      </c>
+      <c r="O16" s="54">
+        <v>120</v>
+      </c>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+    </row>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F17" s="38"/>
+      <c r="G17" s="54">
+        <v>9002</v>
+      </c>
+      <c r="H17" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="54" t="s">
         <v>32</v>
-      </c>
-      <c r="M16" s="54">
-        <v>80</v>
-      </c>
-      <c r="N16" s="54">
-        <v>120</v>
-      </c>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="38"/>
-      <c r="F17" s="54">
-        <v>9002</v>
-      </c>
-      <c r="G17" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="61">
-        <v>36</v>
       </c>
       <c r="J17" s="61">
         <v>36</v>
       </c>
-      <c r="K17" s="65">
+      <c r="K17" s="61">
+        <v>36</v>
+      </c>
+      <c r="L17" s="65">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="L17" s="54" t="s">
+      <c r="M17" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="54">
+        <v>80</v>
+      </c>
+      <c r="O17" s="54">
+        <v>20</v>
+      </c>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+    </row>
+    <row r="18" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="38"/>
+      <c r="G18" s="56">
+        <v>9003</v>
+      </c>
+      <c r="H18" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="54">
-        <v>80</v>
-      </c>
-      <c r="N17" s="54">
+      <c r="J18" s="63">
         <v>20</v>
       </c>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-    </row>
-    <row r="18" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="38"/>
-      <c r="F18" s="56">
-        <v>9003</v>
-      </c>
-      <c r="G18" s="79" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="63">
-        <v>20</v>
-      </c>
-      <c r="J18" s="63">
+      <c r="K18" s="63">
         <v>60</v>
       </c>
-      <c r="K18" s="67">
+      <c r="L18" s="67">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="L18" s="56" t="s">
+      <c r="M18" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="56">
+        <v>80</v>
+      </c>
+      <c r="O18" s="56">
+        <v>10</v>
+      </c>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+    </row>
+    <row r="19" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="38"/>
+      <c r="N19" s="29"/>
+    </row>
+    <row r="20" spans="6:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="38"/>
+      <c r="G20" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="M20" s="38"/>
+    </row>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F21" s="38"/>
+      <c r="G21" s="71">
+        <v>100</v>
+      </c>
+      <c r="H21" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="60">
+        <v>21</v>
+      </c>
+      <c r="K21" s="60">
+        <v>2.5</v>
+      </c>
+      <c r="L21" s="71">
+        <v>1.3</v>
+      </c>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F22" s="38"/>
+      <c r="G22" s="54">
+        <v>200</v>
+      </c>
+      <c r="H22" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="61">
+        <v>21</v>
+      </c>
+      <c r="K22" s="61">
+        <v>3</v>
+      </c>
+      <c r="L22" s="54">
+        <v>2.5</v>
+      </c>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+    </row>
+    <row r="23" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F23" s="38"/>
+      <c r="G23" s="54">
+        <v>300</v>
+      </c>
+      <c r="H23" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="61">
+        <v>21</v>
+      </c>
+      <c r="K23" s="61">
+        <v>1.3</v>
+      </c>
+      <c r="L23" s="54">
+        <v>2.5</v>
+      </c>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+    </row>
+    <row r="24" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F24" s="38"/>
+      <c r="G24" s="54">
+        <v>500</v>
+      </c>
+      <c r="H24" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="61">
+        <v>21</v>
+      </c>
+      <c r="K24" s="61">
+        <v>0.3</v>
+      </c>
+      <c r="L24" s="54">
+        <v>3.5</v>
+      </c>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F25" s="38"/>
+      <c r="G25" s="54">
+        <v>600</v>
+      </c>
+      <c r="H25" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="61">
+        <v>21</v>
+      </c>
+      <c r="K25" s="61">
+        <v>2</v>
+      </c>
+      <c r="L25" s="54">
+        <v>3.5</v>
+      </c>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+    </row>
+    <row r="26" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F26" s="38"/>
+      <c r="G26" s="55">
+        <v>800</v>
+      </c>
+      <c r="H26" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="62">
+        <v>21</v>
+      </c>
+      <c r="K26" s="62"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+    </row>
+    <row r="27" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="38"/>
+      <c r="G27" s="56">
+        <v>900</v>
+      </c>
+      <c r="H27" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="56">
-        <v>80</v>
-      </c>
-      <c r="N18" s="56">
-        <v>10</v>
-      </c>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-    </row>
-    <row r="19" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="38"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="5:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="38"/>
-      <c r="F20" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="J20" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="75" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="38"/>
-    </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="38"/>
-      <c r="F21" s="71">
-        <v>100</v>
-      </c>
-      <c r="G21" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="60">
+      <c r="I27" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="63">
         <v>21</v>
       </c>
-      <c r="J21" s="60">
-        <v>2.5</v>
-      </c>
-      <c r="K21" s="71">
-        <v>1.3</v>
-      </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-    </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="38"/>
-      <c r="F22" s="54">
-        <v>200</v>
-      </c>
-      <c r="G22" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="61">
-        <v>21</v>
-      </c>
-      <c r="J22" s="61">
-        <v>3</v>
-      </c>
-      <c r="K22" s="54">
-        <v>2.5</v>
-      </c>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-    </row>
-    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="38"/>
-      <c r="F23" s="54">
-        <v>300</v>
-      </c>
-      <c r="G23" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="61">
-        <v>21</v>
-      </c>
-      <c r="J23" s="61">
-        <v>1.3</v>
-      </c>
-      <c r="K23" s="54">
-        <v>2.5</v>
-      </c>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-    </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="38"/>
-      <c r="F24" s="54">
-        <v>500</v>
-      </c>
-      <c r="G24" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="61">
-        <v>21</v>
-      </c>
-      <c r="J24" s="61">
-        <v>0.3</v>
-      </c>
-      <c r="K24" s="54">
+      <c r="K27" s="63">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L27" s="56">
         <v>3.5</v>
       </c>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-    </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="38"/>
-      <c r="F25" s="54">
-        <v>600</v>
-      </c>
-      <c r="G25" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="61">
-        <v>21</v>
-      </c>
-      <c r="J25" s="61">
-        <v>2</v>
-      </c>
-      <c r="K25" s="54">
-        <v>3.5</v>
-      </c>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-    </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E26" s="38"/>
-      <c r="F26" s="55">
-        <v>800</v>
-      </c>
-      <c r="G26" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="62">
-        <v>21</v>
-      </c>
-      <c r="J26" s="62"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-    </row>
-    <row r="27" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="38"/>
-      <c r="F27" s="56">
-        <v>900</v>
-      </c>
-      <c r="G27" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="63">
-        <v>21</v>
-      </c>
-      <c r="J27" s="63">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K27" s="56">
-        <v>3.5</v>
-      </c>
-      <c r="L27" s="38"/>
       <c r="M27" s="38"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="39"/>
       <c r="P27" s="38"/>
-    </row>
-    <row r="28" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E28" s="38"/>
-      <c r="L28" s="38"/>
+      <c r="Q27" s="38"/>
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F28" s="38"/>
       <c r="M28" s="38"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="39"/>
       <c r="P28" s="38"/>
-    </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E29" s="38"/>
-      <c r="L29" s="38"/>
+      <c r="Q28" s="38"/>
+    </row>
+    <row r="29" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F29" s="38"/>
       <c r="M29" s="38"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="39"/>
       <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2596,7 +2599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12CEBBD-090D-4434-A119-3402FA7D8625}">
   <dimension ref="C2:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
@@ -2612,609 +2615,614 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
+      <c r="C2" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="33" t="s">
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="91" t="s">
+      <c r="F7" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="G7" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="81"/>
       <c r="F10" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91" t="s">
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="30" t="s">
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="35" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="35" t="s">
-        <v>60</v>
       </c>
       <c r="F13" s="83"/>
       <c r="G13" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="83"/>
       <c r="G16" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="30" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="91"/>
-      <c r="D18" s="91" t="s">
+      <c r="C18" s="92"/>
+      <c r="D18" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="94" t="s">
-        <v>64</v>
-      </c>
       <c r="F18" s="83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="94"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="83"/>
       <c r="G19" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91" t="s">
-        <v>68</v>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92" t="s">
+        <v>67</v>
       </c>
       <c r="F20" s="83"/>
       <c r="G20" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="30" t="s">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91" t="s">
+      <c r="F23" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="30" t="s">
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="35" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="35" t="s">
+      <c r="F25" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91" t="s">
+      <c r="F26" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="G26" s="30" t="s">
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="84"/>
       <c r="G29" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="92"/>
+      <c r="D30" s="92" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="91"/>
-      <c r="D30" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="91"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="G32" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
       <c r="F33" s="84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G33" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
       <c r="F35" s="36"/>
       <c r="G35" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
       <c r="F36" s="82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
       <c r="F37" s="82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
       <c r="F38" s="82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="91"/>
-      <c r="D39" s="92" t="s">
+      <c r="C39" s="92"/>
+      <c r="D39" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="94"/>
+      <c r="F39" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="92"/>
+      <c r="D40" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="92"/>
-      <c r="F39" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="91"/>
-      <c r="D40" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="92"/>
+      <c r="E40" s="94"/>
       <c r="F40" s="81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="94"/>
+      <c r="F41" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="92"/>
-      <c r="F41" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="91" t="s">
+      <c r="D42" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="92"/>
+      <c r="F42" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="91" t="s">
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="91"/>
-      <c r="F42" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="34" t="s">
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" s="34" t="s">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="34" t="s">
+    <row r="46" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="34" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="34" t="s">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" s="34" t="s">
-        <v>96</v>
-      </c>
-    </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="91"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
       <c r="F48" s="81"/>
       <c r="G48" s="85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
       <c r="F49" s="86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G49" s="85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
       <c r="F50" s="30"/>
       <c r="G50" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
       <c r="F51" s="30"/>
       <c r="G51" s="85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="91"/>
-      <c r="D52" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="E52" s="92"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="94" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="94"/>
       <c r="F52" s="30"/>
       <c r="G52" s="85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C53" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="92" t="s">
+      <c r="E53" s="94"/>
+      <c r="F53" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" s="85" t="s">
         <v>105</v>
-      </c>
-      <c r="E53" s="92"/>
-      <c r="F53" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="G53" s="85" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C42:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D42:E51"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D53:E53"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E7:E9"/>
@@ -3230,11 +3238,6 @@
     <mergeCell ref="D30:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="C42:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D42:E51"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D53:E53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3269,25 +3272,25 @@
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>6</v>
@@ -3308,13 +3311,13 @@
         <v>8</v>
       </c>
       <c r="O3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="Q3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>

--- a/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
+++ b/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra\Documents\GitHub\TP-GESTION-PROGRAMACION-2\SG - CLASES SEPARADAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5C676138-57C6-44C0-9028-FD6E67DA5D3B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0E31D40D-7876-4BFF-A5B8-293DFD07AEAF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="1" xr2:uid="{A683A0A2-948E-478E-9454-D16ED83D3AB7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="2" xr2:uid="{A683A0A2-948E-478E-9454-D16ED83D3AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="PRECIO DE COSTO" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="149">
   <si>
     <t xml:space="preserve">PRECIO </t>
   </si>
@@ -327,9 +327,6 @@
     <t>CONSULTAR MOVIMIENTOS</t>
   </si>
   <si>
-    <t>OPCIONES METODOS DE PAGO</t>
-  </si>
-  <si>
     <t>VUELTO CON TARJETAS</t>
   </si>
   <si>
@@ -472,13 +469,19 @@
   </si>
   <si>
     <t>descripcion</t>
+  </si>
+  <si>
+    <t>APROXIMACION DE PRECIOS</t>
+  </si>
+  <si>
+    <t>LEYENDAS DE OPCIONES METODOS DE PAGO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +556,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -826,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1048,6 +1058,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1058,23 +1074,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1408,15 +1425,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1500,15 +1517,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1615,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC7CB8-BD08-475E-BF73-5156E3B0BE3D}">
   <dimension ref="B1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,15 +1657,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
+      <c r="B1" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="92"/>
       <c r="F1" s="38"/>
       <c r="L1" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1668,8 +1685,8 @@
       <c r="G2" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="95" t="s">
-        <v>147</v>
+      <c r="H2" s="88" t="s">
+        <v>146</v>
       </c>
       <c r="I2" s="73" t="s">
         <v>26</v>
@@ -1701,23 +1718,23 @@
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="50">
         <v>1</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="71">
         <v>1001</v>
       </c>
       <c r="H3" s="76" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I3" s="71" t="s">
         <v>15</v>
@@ -1746,23 +1763,23 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="42">
         <v>2</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="54">
         <v>1002</v>
       </c>
       <c r="H4" s="77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I4" s="54" t="s">
         <v>15</v>
@@ -1791,23 +1808,23 @@
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="42">
         <v>3</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="54">
         <v>2001</v>
       </c>
       <c r="H5" s="77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I5" s="54" t="s">
         <v>27</v>
@@ -1836,23 +1853,23 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="43">
         <v>4</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="54">
         <v>2002</v>
       </c>
       <c r="H6" s="77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I6" s="54" t="s">
         <v>27</v>
@@ -1880,18 +1897,18 @@
       <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="90"/>
+      <c r="B7" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="38"/>
       <c r="G7" s="54">
         <v>3001</v>
       </c>
       <c r="H7" s="77" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I7" s="54" t="s">
         <v>30</v>
@@ -1936,7 +1953,7 @@
         <v>3002</v>
       </c>
       <c r="H8" s="77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I8" s="54" t="s">
         <v>30</v>
@@ -1965,23 +1982,23 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C9" s="41">
         <v>34</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="54">
         <v>3003</v>
       </c>
       <c r="H9" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I9" s="54" t="s">
         <v>30</v>
@@ -2010,23 +2027,23 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="42">
         <v>29</v>
       </c>
       <c r="D10" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="42" t="s">
         <v>117</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>118</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="54">
         <v>5001</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I10" s="54" t="s">
         <v>38</v>
@@ -2055,23 +2072,23 @@
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="42">
         <v>22</v>
       </c>
       <c r="D11" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="42" t="s">
         <v>119</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>120</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="54">
         <v>5002</v>
       </c>
       <c r="H11" s="77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I11" s="54" t="s">
         <v>38</v>
@@ -2100,23 +2117,23 @@
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="42">
         <v>60</v>
       </c>
       <c r="D12" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="42" t="s">
         <v>122</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>123</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="54">
         <v>6001</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I12" s="54" t="s">
         <v>36</v>
@@ -2145,23 +2162,23 @@
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="42">
         <v>19</v>
       </c>
       <c r="D13" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>125</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="54">
         <v>6002</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I13" s="54" t="s">
         <v>36</v>
@@ -2190,23 +2207,23 @@
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="43">
         <v>21</v>
       </c>
       <c r="D14" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="43" t="s">
         <v>126</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>127</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="55">
         <v>8001</v>
       </c>
       <c r="H14" s="78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>29</v>
@@ -2239,7 +2256,7 @@
         <v>8002</v>
       </c>
       <c r="H15" s="78" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>29</v>
@@ -2272,7 +2289,7 @@
         <v>9001</v>
       </c>
       <c r="H16" s="77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I16" s="54" t="s">
         <v>32</v>
@@ -2305,7 +2322,7 @@
         <v>9002</v>
       </c>
       <c r="H17" s="77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I17" s="54" t="s">
         <v>32</v>
@@ -2338,7 +2355,7 @@
         <v>9003</v>
       </c>
       <c r="H18" s="79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I18" s="56" t="s">
         <v>32</v>
@@ -2387,7 +2404,7 @@
         <v>3</v>
       </c>
       <c r="L20" s="75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M20" s="38"/>
     </row>
@@ -2597,10 +2614,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12CEBBD-090D-4434-A119-3402FA7D8625}">
-  <dimension ref="C2:G53"/>
+  <dimension ref="C2:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2615,13 +2632,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="31" t="s">
@@ -2641,13 +2658,13 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="93" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="83" t="s">
@@ -2658,9 +2675,9 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="83" t="s">
         <v>47</v>
       </c>
@@ -2669,9 +2686,9 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="83" t="s">
         <v>47</v>
       </c>
@@ -2680,9 +2697,9 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="83" t="s">
@@ -2693,9 +2710,9 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
       <c r="F8" s="83" t="s">
         <v>47</v>
       </c>
@@ -2704,9 +2721,9 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="83" t="s">
         <v>47</v>
       </c>
@@ -2715,8 +2732,8 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="81"/>
       <c r="F10" s="83" t="s">
         <v>47</v>
@@ -2726,9 +2743,9 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92" t="s">
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="83" t="s">
@@ -2739,9 +2756,9 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="83" t="s">
         <v>47</v>
       </c>
@@ -2750,20 +2767,22 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
       <c r="E13" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="83"/>
+      <c r="F13" s="83" t="s">
+        <v>47</v>
+      </c>
       <c r="G13" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92" t="s">
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93" t="s">
         <v>60</v>
       </c>
       <c r="F14" s="83" t="s">
@@ -2774,9 +2793,9 @@
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="83" t="s">
         <v>47</v>
       </c>
@@ -2785,18 +2804,20 @@
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="30" t="s">
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="97" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="98" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="83" t="s">
         <v>47</v>
       </c>
@@ -2805,116 +2826,120 @@
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="92"/>
-      <c r="D18" s="92" t="s">
+      <c r="C18" s="93"/>
+      <c r="D18" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="96" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="83"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="83" t="s">
+        <v>145</v>
+      </c>
       <c r="G19" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92" t="s">
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="83"/>
+      <c r="F20" s="83" t="s">
+        <v>145</v>
+      </c>
       <c r="G20" s="30" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
       <c r="F21" s="83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
       <c r="F22" s="83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92" t="s">
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93" t="s">
         <v>57</v>
       </c>
       <c r="F23" s="83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="35" t="s">
         <v>59</v>
       </c>
       <c r="F25" s="83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92" t="s">
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93" t="s">
         <v>60</v>
       </c>
       <c r="F26" s="83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
       <c r="F27" s="84" t="s">
         <v>47</v>
       </c>
@@ -2923,9 +2948,9 @@
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
       <c r="F28" s="84" t="s">
         <v>47</v>
       </c>
@@ -2934,20 +2959,22 @@
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="30" t="s">
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="98" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="92"/>
-      <c r="D30" s="92" t="s">
+      <c r="C30" s="93"/>
+      <c r="D30" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="92"/>
+      <c r="E30" s="93"/>
       <c r="F30" s="84" t="s">
         <v>47</v>
       </c>
@@ -2956,9 +2983,9 @@
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
       <c r="F31" s="84" t="s">
         <v>47</v>
       </c>
@@ -2967,9 +2994,9 @@
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
       <c r="F32" s="84" t="s">
         <v>47</v>
       </c>
@@ -2978,9 +3005,9 @@
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="84" t="s">
         <v>47</v>
       </c>
@@ -2989,9 +3016,9 @@
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
       <c r="F34" s="81" t="s">
         <v>47</v>
       </c>
@@ -3000,18 +3027,20 @@
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="36"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="G35" s="34" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
       <c r="F36" s="82" t="s">
         <v>47</v>
       </c>
@@ -3020,9 +3049,9 @@
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
       <c r="F37" s="82" t="s">
         <v>47</v>
       </c>
@@ -3031,33 +3060,31 @@
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
       <c r="F38" s="82" t="s">
         <v>47</v>
       </c>
       <c r="G38" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="92"/>
-      <c r="D39" s="94" t="s">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="93"/>
+      <c r="D40" s="94" t="s">
         <v>75</v>
-      </c>
-      <c r="E39" s="94"/>
-      <c r="F39" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="92"/>
-      <c r="D40" s="94" t="s">
-        <v>76</v>
       </c>
       <c r="E40" s="94"/>
       <c r="F40" s="81" t="s">
@@ -3068,176 +3095,193 @@
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="93"/>
+      <c r="D41" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="94"/>
+      <c r="F41" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="94" t="s">
+      <c r="D42" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="94"/>
-      <c r="F41" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" s="34" t="s">
+      <c r="E42" s="94"/>
+      <c r="F42" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="92" t="s">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="92" t="s">
+      <c r="D43" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="92"/>
-      <c r="F42" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="34" t="s">
+      <c r="E43" s="93"/>
+      <c r="F43" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="34" t="s">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" s="34" t="s">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="34" t="s">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" s="34" t="s">
+    <row r="47" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="34" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" s="34" t="s">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="85" t="s">
-        <v>102</v>
-      </c>
-    </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="86" t="s">
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="81" t="s">
         <v>47</v>
       </c>
       <c r="G49" s="85" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="85" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="85" t="s">
-        <v>100</v>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="92"/>
-      <c r="D52" s="94" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="94"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
       <c r="F52" s="30"/>
       <c r="G52" s="85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="93"/>
+      <c r="D53" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="94"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="94" t="s">
+      <c r="E54" s="94"/>
+      <c r="F54" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="85" t="s">
         <v>104</v>
-      </c>
-      <c r="E53" s="94"/>
-      <c r="F53" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" s="85" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C42:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D42:E51"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D53:E53"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="D4:D17"/>
-    <mergeCell ref="C4:C40"/>
+    <mergeCell ref="C4:C41"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E26:E29"/>
     <mergeCell ref="D18:D29"/>
-    <mergeCell ref="D30:E38"/>
-    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D30:E39"/>
     <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D43:E52"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D54:E54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
+++ b/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra\Documents\GitHub\TP-GESTION-PROGRAMACION-2\SG - CLASES SEPARADAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0E31D40D-7876-4BFF-A5B8-293DFD07AEAF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0179E6CE-D6D7-4C8A-ABE7-0D002817E439}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="2" xr2:uid="{A683A0A2-948E-478E-9454-D16ED83D3AB7}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="149">
   <si>
     <t xml:space="preserve">PRECIO </t>
   </si>
@@ -481,7 +481,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,14 +528,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -836,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -934,9 +926,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1008,16 +997,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1037,9 +1026,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1058,22 +1044,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1082,16 +1053,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1425,15 +1414,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1517,15 +1506,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1638,969 +1627,969 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.140625" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="52" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125"/>
     <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="37"/>
+    <col min="15" max="15" width="11" style="36"/>
     <col min="16" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="16384" width="11" style="38"/>
+    <col min="18" max="16384" width="11" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="38"/>
-      <c r="L1" s="37" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="37"/>
+      <c r="L1" s="36" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="73" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="L2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="73" t="s">
+      <c r="N2" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="O2" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="P2" s="73" t="s">
+      <c r="P2" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="72" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="49">
         <v>1</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="71">
+      <c r="F3" s="37"/>
+      <c r="G3" s="70">
         <v>1001</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="59">
         <v>12</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="59">
         <v>36</v>
       </c>
-      <c r="L3" s="72">
+      <c r="L3" s="71">
         <f>J3*10</f>
         <v>120</v>
       </c>
-      <c r="M3" s="71" t="s">
+      <c r="M3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="71">
+      <c r="N3" s="70">
         <v>50</v>
       </c>
-      <c r="O3" s="71">
+      <c r="O3" s="70">
         <v>30</v>
       </c>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>2</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="54">
+      <c r="F4" s="37"/>
+      <c r="G4" s="53">
         <v>1002</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4" s="60">
         <v>8</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="60">
         <v>48</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L4" s="64">
         <f t="shared" ref="L4:L18" si="0">J4*10</f>
         <v>80</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="54">
+      <c r="N4" s="53">
         <v>50</v>
       </c>
-      <c r="O4" s="54">
+      <c r="O4" s="53">
         <v>60</v>
       </c>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>3</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="54">
+      <c r="F5" s="37"/>
+      <c r="G5" s="53">
         <v>2001</v>
       </c>
-      <c r="H5" s="77" t="s">
+      <c r="H5" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="60">
         <v>12</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="60">
         <v>12</v>
       </c>
-      <c r="L5" s="65">
+      <c r="L5" s="64">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="M5" s="54" t="s">
+      <c r="M5" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="54">
+      <c r="N5" s="53">
         <v>50</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="53">
         <v>30</v>
       </c>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="42">
         <v>4</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="54">
+      <c r="F6" s="37"/>
+      <c r="G6" s="53">
         <v>2002</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="61">
+      <c r="J6" s="60">
         <v>6</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="60">
         <v>6</v>
       </c>
-      <c r="L6" s="65">
+      <c r="L6" s="64">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="M6" s="54" t="s">
+      <c r="M6" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="54">
+      <c r="N6" s="53">
         <v>50</v>
       </c>
-      <c r="O6" s="54">
+      <c r="O6" s="53">
         <v>55</v>
       </c>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="54">
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="53">
         <v>3001</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="61">
+      <c r="J7" s="60">
         <v>20</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7" s="60">
         <v>20</v>
       </c>
-      <c r="L7" s="65">
+      <c r="L7" s="64">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="54">
+      <c r="N7" s="53">
         <v>80</v>
       </c>
-      <c r="O7" s="54">
+      <c r="O7" s="53">
         <v>20</v>
       </c>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="54">
+      <c r="F8" s="37"/>
+      <c r="G8" s="53">
         <v>3002</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="61">
+      <c r="J8" s="60">
         <v>21</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="60">
         <v>21</v>
       </c>
-      <c r="L8" s="65">
+      <c r="L8" s="64">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="M8" s="57" t="s">
+      <c r="M8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="54">
+      <c r="N8" s="53">
         <v>80</v>
       </c>
-      <c r="O8" s="54">
+      <c r="O8" s="53">
         <v>20</v>
       </c>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="40">
         <v>34</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="54">
+      <c r="F9" s="37"/>
+      <c r="G9" s="53">
         <v>3003</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="61">
+      <c r="J9" s="60">
         <v>20</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="60">
         <v>60</v>
       </c>
-      <c r="L9" s="65">
+      <c r="L9" s="64">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="M9" s="54" t="s">
+      <c r="M9" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="54">
+      <c r="N9" s="53">
         <v>80</v>
       </c>
-      <c r="O9" s="54">
+      <c r="O9" s="53">
         <v>15</v>
       </c>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>29</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="54">
+      <c r="F10" s="37"/>
+      <c r="G10" s="53">
         <v>5001</v>
       </c>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="61">
+      <c r="J10" s="60">
         <v>10</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="60">
         <v>40</v>
       </c>
-      <c r="L10" s="65">
+      <c r="L10" s="64">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M10" s="54" t="s">
+      <c r="M10" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="54">
+      <c r="N10" s="53">
         <v>35</v>
       </c>
-      <c r="O10" s="54">
+      <c r="O10" s="53">
         <v>70</v>
       </c>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="41">
         <v>22</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="54">
+      <c r="F11" s="37"/>
+      <c r="G11" s="53">
         <v>5002</v>
       </c>
-      <c r="H11" s="77" t="s">
+      <c r="H11" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="61">
+      <c r="J11" s="60">
         <v>10</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="60">
         <v>20</v>
       </c>
-      <c r="L11" s="65">
+      <c r="L11" s="64">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M11" s="54" t="s">
+      <c r="M11" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="54">
+      <c r="N11" s="53">
         <v>35</v>
       </c>
-      <c r="O11" s="54">
+      <c r="O11" s="53">
         <v>70</v>
       </c>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="41">
         <v>60</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="54">
+      <c r="F12" s="37"/>
+      <c r="G12" s="53">
         <v>6001</v>
       </c>
-      <c r="H12" s="77" t="s">
+      <c r="H12" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12" s="60">
         <v>10</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12" s="60">
         <v>60</v>
       </c>
-      <c r="L12" s="65">
+      <c r="L12" s="64">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M12" s="68" t="s">
+      <c r="M12" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="54">
+      <c r="N12" s="53">
         <v>35</v>
       </c>
-      <c r="O12" s="54">
+      <c r="O12" s="53">
         <v>65</v>
       </c>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="41">
         <v>19</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="54">
+      <c r="F13" s="37"/>
+      <c r="G13" s="53">
         <v>6002</v>
       </c>
-      <c r="H13" s="77" t="s">
+      <c r="H13" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="54" t="s">
+      <c r="I13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="61">
+      <c r="J13" s="60">
         <v>10</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="60">
         <v>60</v>
       </c>
-      <c r="L13" s="65">
+      <c r="L13" s="64">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="54">
+      <c r="N13" s="53">
         <v>35</v>
       </c>
-      <c r="O13" s="54">
+      <c r="O13" s="53">
         <v>70</v>
       </c>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
     </row>
     <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="42">
         <v>21</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="55">
+      <c r="F14" s="37"/>
+      <c r="G14" s="54">
         <v>8001</v>
       </c>
-      <c r="H14" s="78" t="s">
+      <c r="H14" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="61">
         <v>12</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="63">
         <v>24</v>
       </c>
-      <c r="L14" s="66">
+      <c r="L14" s="65">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="M14" s="55" t="s">
+      <c r="M14" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="55">
+      <c r="N14" s="54">
         <v>50</v>
       </c>
-      <c r="O14" s="55">
+      <c r="O14" s="54">
         <v>25</v>
       </c>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F15" s="38"/>
-      <c r="G15" s="55">
+      <c r="F15" s="37"/>
+      <c r="G15" s="54">
         <v>8002</v>
       </c>
-      <c r="H15" s="78" t="s">
+      <c r="H15" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="61">
         <v>12</v>
       </c>
-      <c r="K15" s="62">
+      <c r="K15" s="61">
         <v>48</v>
       </c>
-      <c r="L15" s="66">
+      <c r="L15" s="65">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="M15" s="55" t="s">
+      <c r="M15" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="55">
+      <c r="N15" s="54">
         <v>50</v>
       </c>
-      <c r="O15" s="55">
+      <c r="O15" s="54">
         <v>40</v>
       </c>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F16" s="38"/>
-      <c r="G16" s="54">
+      <c r="F16" s="37"/>
+      <c r="G16" s="53">
         <v>9001</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="I16" s="54" t="s">
+      <c r="I16" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="61">
+      <c r="J16" s="60">
         <v>12</v>
       </c>
-      <c r="K16" s="61">
+      <c r="K16" s="60">
         <v>12</v>
       </c>
-      <c r="L16" s="65">
+      <c r="L16" s="64">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="M16" s="54" t="s">
+      <c r="M16" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="54">
+      <c r="N16" s="53">
         <v>80</v>
       </c>
-      <c r="O16" s="54">
+      <c r="O16" s="53">
         <v>120</v>
       </c>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
     </row>
     <row r="17" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F17" s="38"/>
-      <c r="G17" s="54">
+      <c r="F17" s="37"/>
+      <c r="G17" s="53">
         <v>9002</v>
       </c>
-      <c r="H17" s="77" t="s">
+      <c r="H17" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="I17" s="54" t="s">
+      <c r="I17" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="61">
+      <c r="J17" s="60">
         <v>36</v>
       </c>
-      <c r="K17" s="61">
+      <c r="K17" s="60">
         <v>36</v>
       </c>
-      <c r="L17" s="65">
+      <c r="L17" s="64">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="M17" s="54" t="s">
+      <c r="M17" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="54">
+      <c r="N17" s="53">
         <v>80</v>
       </c>
-      <c r="O17" s="54">
+      <c r="O17" s="53">
         <v>20</v>
       </c>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
     </row>
     <row r="18" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="38"/>
-      <c r="G18" s="56">
+      <c r="F18" s="37"/>
+      <c r="G18" s="55">
         <v>9003</v>
       </c>
-      <c r="H18" s="79" t="s">
+      <c r="H18" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="I18" s="56" t="s">
+      <c r="I18" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="63">
+      <c r="J18" s="62">
         <v>20</v>
       </c>
-      <c r="K18" s="63">
+      <c r="K18" s="62">
         <v>60</v>
       </c>
-      <c r="L18" s="67">
+      <c r="L18" s="66">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="M18" s="56" t="s">
+      <c r="M18" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="56">
+      <c r="N18" s="55">
         <v>80</v>
       </c>
-      <c r="O18" s="56">
+      <c r="O18" s="55">
         <v>10</v>
       </c>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
     </row>
     <row r="19" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="38"/>
+      <c r="F19" s="37"/>
       <c r="N19" s="29"/>
     </row>
     <row r="20" spans="6:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="38"/>
-      <c r="G20" s="73" t="s">
+      <c r="F20" s="37"/>
+      <c r="G20" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="73" t="s">
+      <c r="H20" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="73" t="s">
+      <c r="I20" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="59" t="s">
+      <c r="J20" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="K20" s="59" t="s">
+      <c r="K20" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="75" t="s">
+      <c r="L20" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="M20" s="38"/>
+      <c r="M20" s="37"/>
     </row>
     <row r="21" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F21" s="38"/>
-      <c r="G21" s="71">
+      <c r="F21" s="37"/>
+      <c r="G21" s="70">
         <v>100</v>
       </c>
-      <c r="H21" s="76" t="s">
+      <c r="H21" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="71" t="s">
+      <c r="I21" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="59">
         <v>21</v>
       </c>
-      <c r="K21" s="60">
+      <c r="K21" s="59">
         <v>2.5</v>
       </c>
-      <c r="L21" s="71">
+      <c r="L21" s="70">
         <v>1.3</v>
       </c>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F22" s="38"/>
-      <c r="G22" s="54">
+      <c r="F22" s="37"/>
+      <c r="G22" s="53">
         <v>200</v>
       </c>
-      <c r="H22" s="77" t="s">
+      <c r="H22" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="54" t="s">
+      <c r="I22" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="61">
+      <c r="J22" s="60">
         <v>21</v>
       </c>
-      <c r="K22" s="61">
+      <c r="K22" s="60">
         <v>3</v>
       </c>
-      <c r="L22" s="54">
+      <c r="L22" s="53">
         <v>2.5</v>
       </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F23" s="38"/>
-      <c r="G23" s="54">
+      <c r="F23" s="37"/>
+      <c r="G23" s="53">
         <v>300</v>
       </c>
-      <c r="H23" s="77" t="s">
+      <c r="H23" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="54" t="s">
+      <c r="I23" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="61">
+      <c r="J23" s="60">
         <v>21</v>
       </c>
-      <c r="K23" s="61">
+      <c r="K23" s="60">
         <v>1.3</v>
       </c>
-      <c r="L23" s="54">
+      <c r="L23" s="53">
         <v>2.5</v>
       </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F24" s="38"/>
-      <c r="G24" s="54">
+      <c r="F24" s="37"/>
+      <c r="G24" s="53">
         <v>500</v>
       </c>
-      <c r="H24" s="77" t="s">
+      <c r="H24" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="54" t="s">
+      <c r="I24" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="61">
+      <c r="J24" s="60">
         <v>21</v>
       </c>
-      <c r="K24" s="61">
+      <c r="K24" s="60">
         <v>0.3</v>
       </c>
-      <c r="L24" s="54">
+      <c r="L24" s="53">
         <v>3.5</v>
       </c>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
     </row>
     <row r="25" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F25" s="38"/>
-      <c r="G25" s="54">
+      <c r="F25" s="37"/>
+      <c r="G25" s="53">
         <v>600</v>
       </c>
-      <c r="H25" s="77" t="s">
+      <c r="H25" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="54" t="s">
+      <c r="I25" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="61">
+      <c r="J25" s="60">
         <v>21</v>
       </c>
-      <c r="K25" s="61">
+      <c r="K25" s="60">
         <v>2</v>
       </c>
-      <c r="L25" s="54">
+      <c r="L25" s="53">
         <v>3.5</v>
       </c>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
     </row>
     <row r="26" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F26" s="38"/>
-      <c r="G26" s="55">
+      <c r="F26" s="37"/>
+      <c r="G26" s="54">
         <v>800</v>
       </c>
-      <c r="H26" s="78" t="s">
+      <c r="H26" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="55" t="s">
+      <c r="I26" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="62">
+      <c r="J26" s="61">
         <v>21</v>
       </c>
-      <c r="K26" s="62"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
     </row>
     <row r="27" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="38"/>
-      <c r="G27" s="56">
+      <c r="F27" s="37"/>
+      <c r="G27" s="55">
         <v>900</v>
       </c>
-      <c r="H27" s="79" t="s">
+      <c r="H27" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="58" t="s">
+      <c r="I27" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="63">
+      <c r="J27" s="62">
         <v>21</v>
       </c>
-      <c r="K27" s="63">
+      <c r="K27" s="62">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L27" s="56">
+      <c r="L27" s="55">
         <v>3.5</v>
       </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
     </row>
     <row r="28" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
     </row>
     <row r="29" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
+      <c r="F29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2616,8 +2605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12CEBBD-090D-4434-A119-3402FA7D8625}">
   <dimension ref="C2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2627,18 +2616,18 @@
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="81.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="31" t="s">
@@ -2658,16 +2647,16 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="81" t="s">
         <v>47</v>
       </c>
       <c r="G4" s="34" t="s">
@@ -2675,10 +2664,10 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="83" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="81" t="s">
         <v>47</v>
       </c>
       <c r="G5" s="30" t="s">
@@ -2686,10 +2675,10 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="83" t="s">
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="81" t="s">
         <v>47</v>
       </c>
       <c r="G6" s="34" t="s">
@@ -2697,12 +2686,12 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="81" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="30" t="s">
@@ -2710,10 +2699,10 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="83" t="s">
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="81" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="30" t="s">
@@ -2721,10 +2710,10 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="83" t="s">
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="81" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="30" t="s">
@@ -2732,10 +2721,10 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="83" t="s">
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="81" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="30" t="s">
@@ -2743,12 +2732,12 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93" t="s">
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="81" t="s">
         <v>47</v>
       </c>
       <c r="G11" s="30" t="s">
@@ -2756,10 +2745,10 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="83" t="s">
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="81" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -2767,12 +2756,12 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="83" t="s">
+      <c r="F13" s="81" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="30" t="s">
@@ -2780,12 +2769,12 @@
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93" t="s">
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="F14" s="81" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="30" t="s">
@@ -2793,10 +2782,10 @@
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="83" t="s">
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="81" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="34" t="s">
@@ -2804,21 +2793,21 @@
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="97" t="s">
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="98" t="s">
+      <c r="G16" s="89" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="83" t="s">
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="81" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="30" t="s">
@@ -2826,14 +2815,14 @@
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="93"/>
-      <c r="D18" s="93" t="s">
+      <c r="C18" s="95"/>
+      <c r="D18" s="95" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="83" t="s">
+      <c r="F18" s="81" t="s">
         <v>145</v>
       </c>
       <c r="G18" s="30" t="s">
@@ -2841,10 +2830,10 @@
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="96"/>
-      <c r="F19" s="83" t="s">
+      <c r="F19" s="81" t="s">
         <v>145</v>
       </c>
       <c r="G19" s="30" t="s">
@@ -2852,12 +2841,12 @@
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93" t="s">
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="83" t="s">
+      <c r="F20" s="81" t="s">
         <v>145</v>
       </c>
       <c r="G20" s="30" t="s">
@@ -2865,10 +2854,10 @@
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="83" t="s">
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="81" t="s">
         <v>145</v>
       </c>
       <c r="G21" s="30" t="s">
@@ -2876,10 +2865,10 @@
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="83" t="s">
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="81" t="s">
         <v>145</v>
       </c>
       <c r="G22" s="30" t="s">
@@ -2887,12 +2876,12 @@
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93" t="s">
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="83" t="s">
+      <c r="F23" s="81" t="s">
         <v>145</v>
       </c>
       <c r="G23" s="30" t="s">
@@ -2900,10 +2889,10 @@
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="83" t="s">
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="81" t="s">
         <v>145</v>
       </c>
       <c r="G24" s="30" t="s">
@@ -2911,12 +2900,12 @@
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
       <c r="E25" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="83" t="s">
+      <c r="F25" s="81" t="s">
         <v>145</v>
       </c>
       <c r="G25" s="30" t="s">
@@ -2924,12 +2913,12 @@
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93" t="s">
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="83" t="s">
+      <c r="F26" s="81" t="s">
         <v>145</v>
       </c>
       <c r="G26" s="30" t="s">
@@ -2937,10 +2926,10 @@
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="84" t="s">
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="82" t="s">
         <v>47</v>
       </c>
       <c r="G27" s="34" t="s">
@@ -2948,10 +2937,10 @@
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="84" t="s">
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="82" t="s">
         <v>47</v>
       </c>
       <c r="G28" s="30" t="s">
@@ -2959,23 +2948,23 @@
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="84" t="s">
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="98" t="s">
+      <c r="G29" s="89" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="93"/>
-      <c r="D30" s="93" t="s">
+      <c r="C30" s="95"/>
+      <c r="D30" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="93"/>
-      <c r="F30" s="84" t="s">
+      <c r="E30" s="95"/>
+      <c r="F30" s="82" t="s">
         <v>47</v>
       </c>
       <c r="G30" s="30" t="s">
@@ -2983,10 +2972,10 @@
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="84" t="s">
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="82" t="s">
         <v>47</v>
       </c>
       <c r="G31" s="30" t="s">
@@ -2994,10 +2983,10 @@
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="84" t="s">
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="82" t="s">
         <v>47</v>
       </c>
       <c r="G32" s="34" t="s">
@@ -3005,10 +2994,10 @@
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="84" t="s">
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="82" t="s">
         <v>47</v>
       </c>
       <c r="G33" s="34" t="s">
@@ -3016,10 +3005,10 @@
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="81" t="s">
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="86" t="s">
         <v>47</v>
       </c>
       <c r="G34" s="34" t="s">
@@ -3027,10 +3016,10 @@
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="36" t="s">
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G35" s="34" t="s">
@@ -3038,10 +3027,10 @@
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="82" t="s">
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G36" s="34" t="s">
@@ -3049,10 +3038,10 @@
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="82" t="s">
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G37" s="34" t="s">
@@ -3060,10 +3049,10 @@
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="82" t="s">
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G38" s="34" t="s">
@@ -3071,10 +3060,10 @@
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="82" t="s">
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G39" s="34" t="s">
@@ -3082,12 +3071,12 @@
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="93"/>
-      <c r="D40" s="94" t="s">
+      <c r="C40" s="95"/>
+      <c r="D40" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="94"/>
-      <c r="F40" s="81" t="s">
+      <c r="E40" s="97"/>
+      <c r="F40" s="86" t="s">
         <v>47</v>
       </c>
       <c r="G40" s="30" t="s">
@@ -3095,12 +3084,12 @@
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="93"/>
-      <c r="D41" s="94" t="s">
+      <c r="C41" s="95"/>
+      <c r="D41" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="94"/>
-      <c r="F41" s="81" t="s">
+      <c r="E41" s="97"/>
+      <c r="F41" s="86" t="s">
         <v>47</v>
       </c>
       <c r="G41" s="30" t="s">
@@ -3111,10 +3100,10 @@
       <c r="C42" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="94" t="s">
+      <c r="D42" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="94"/>
+      <c r="E42" s="97"/>
       <c r="F42" s="35" t="s">
         <v>47</v>
       </c>
@@ -3123,13 +3112,13 @@
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="93" t="s">
+      <c r="C43" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="93" t="s">
+      <c r="D43" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="93"/>
+      <c r="E43" s="95"/>
       <c r="F43" s="35" t="s">
         <v>47</v>
       </c>
@@ -3138,9 +3127,9 @@
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
       <c r="F44" s="35" t="s">
         <v>47</v>
       </c>
@@ -3149,9 +3138,9 @@
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="93"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
       <c r="F45" s="35" t="s">
         <v>47</v>
       </c>
@@ -3160,9 +3149,9 @@
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
       <c r="F46" s="35" t="s">
         <v>47</v>
       </c>
@@ -3171,9 +3160,9 @@
       </c>
     </row>
     <row r="47" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
       <c r="F47" s="35" t="s">
         <v>47</v>
       </c>
@@ -3182,9 +3171,9 @@
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
       <c r="F48" s="35" t="s">
         <v>47</v>
       </c>
@@ -3193,31 +3182,31 @@
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" s="85" t="s">
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="83" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="93"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50" s="85" t="s">
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="83" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
       <c r="F51" s="87" t="s">
         <v>47</v>
       </c>
@@ -3226,22 +3215,26 @@
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="85" t="s">
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="83" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="93"/>
-      <c r="D53" s="94" t="s">
+      <c r="C53" s="95"/>
+      <c r="D53" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="94"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="85" t="s">
+      <c r="E53" s="97"/>
+      <c r="F53" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" s="83" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3249,19 +3242,24 @@
       <c r="C54" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D54" s="94" t="s">
+      <c r="D54" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="E54" s="94"/>
-      <c r="F54" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G54" s="85" t="s">
+      <c r="E54" s="97"/>
+      <c r="F54" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="83" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D43:E52"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E7:E9"/>
@@ -3277,11 +3275,6 @@
     <mergeCell ref="D30:E39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D43:E52"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D54:E54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
+++ b/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra\Documents\GitHub\TP-GESTION-PROGRAMACION-2\SG - CLASES SEPARADAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0179E6CE-D6D7-4C8A-ABE7-0D002817E439}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9AA2AB2B-8EA2-46EE-8075-BEE2FBF7B554}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="2" xr2:uid="{A683A0A2-948E-478E-9454-D16ED83D3AB7}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="150">
   <si>
     <t xml:space="preserve">PRECIO </t>
   </si>
@@ -465,9 +465,6 @@
     <t>CIERRE DE CAJA</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>descripcion</t>
   </si>
   <si>
@@ -475,6 +472,12 @@
   </si>
   <si>
     <t>LEYENDAS DE OPCIONES METODOS DE PAGO</t>
+  </si>
+  <si>
+    <t>MODIFICAR PROVEEDOR</t>
+  </si>
+  <si>
+    <t>MODIFICAR RETENCIONES -&gt;INTERFAZ (se superponen lineas retenciones)</t>
   </si>
 </sst>
 </file>
@@ -828,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1031,20 +1034,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1053,33 +1060,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1414,15 +1399,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1506,15 +1491,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1622,7 +1607,7 @@
   <dimension ref="B1:Q29"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,12 +1631,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="37"/>
       <c r="L1" s="36" t="s">
         <v>127</v>
@@ -1674,8 +1659,8 @@
       <c r="G2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="85" t="s">
-        <v>146</v>
+      <c r="H2" s="82" t="s">
+        <v>145</v>
       </c>
       <c r="I2" s="72" t="s">
         <v>26</v>
@@ -1886,12 +1871,12 @@
       <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="37"/>
       <c r="G7" s="53">
         <v>3001</v>
@@ -2603,10 +2588,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12CEBBD-090D-4434-A119-3402FA7D8625}">
-  <dimension ref="C2:G54"/>
+  <dimension ref="C2:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,13 +2606,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="31" t="s">
@@ -2647,16 +2632,16 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G4" s="34" t="s">
@@ -2664,10 +2649,10 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="81" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G5" s="30" t="s">
@@ -2675,10 +2660,10 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="81" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G6" s="34" t="s">
@@ -2686,12 +2671,12 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95" t="s">
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="30" t="s">
@@ -2699,10 +2684,10 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="81" t="s">
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="30" t="s">
@@ -2710,10 +2695,10 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="81" t="s">
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="30" t="s">
@@ -2721,10 +2706,10 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
       <c r="E10" s="79"/>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="30" t="s">
@@ -2732,12 +2717,12 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95" t="s">
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G11" s="30" t="s">
@@ -2745,10 +2730,10 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="81" t="s">
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="30" t="s">
@@ -2756,12 +2741,12 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
       <c r="E13" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="30" t="s">
@@ -2769,12 +2754,12 @@
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95" t="s">
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G14" s="30" t="s">
@@ -2782,10 +2767,10 @@
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="81" t="s">
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="34" t="s">
@@ -2793,21 +2778,21 @@
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" s="89" t="s">
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="83" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="81" t="s">
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="30" t="s">
@@ -2815,121 +2800,121 @@
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="95"/>
-      <c r="D18" s="95" t="s">
+      <c r="C18" s="88"/>
+      <c r="D18" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="96" t="s">
+      <c r="E18" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="81" t="s">
-        <v>145</v>
+      <c r="F18" s="80" t="s">
+        <v>47</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="81" t="s">
-        <v>145</v>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="80" t="s">
+        <v>47</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95" t="s">
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="81" t="s">
-        <v>145</v>
+      <c r="F20" s="80" t="s">
+        <v>47</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="81" t="s">
-        <v>145</v>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="80" t="s">
+        <v>47</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="81" t="s">
-        <v>145</v>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="80" t="s">
+        <v>47</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95" t="s">
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="81" t="s">
-        <v>145</v>
+      <c r="F23" s="80" t="s">
+        <v>47</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="81" t="s">
-        <v>145</v>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="80" t="s">
+        <v>47</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="81" t="s">
-        <v>145</v>
+      <c r="F25" s="80" t="s">
+        <v>47</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="81" t="s">
-        <v>145</v>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="80" t="s">
+        <v>47</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="82" t="s">
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G27" s="34" t="s">
@@ -2937,10 +2922,10 @@
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="82" t="s">
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G28" s="30" t="s">
@@ -2948,148 +2933,144 @@
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="G29" s="89" t="s">
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="83" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="95"/>
-      <c r="D30" s="95" t="s">
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="88"/>
+      <c r="D31" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="95"/>
-      <c r="F30" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="30" t="s">
+      <c r="E31" s="88"/>
+      <c r="F31" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="30" t="s">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="34" t="s">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="34" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="34" t="s">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="34" t="s">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="34" t="s">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="34" t="s">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="34" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="34" t="s">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>147</v>
-      </c>
-    </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
       <c r="F39" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G39" s="34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="95"/>
-      <c r="D40" s="97" t="s">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="88"/>
+      <c r="D41" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="97"/>
-      <c r="F40" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="95"/>
-      <c r="D41" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="97"/>
-      <c r="F41" s="86" t="s">
+      <c r="E41" s="89"/>
+      <c r="F41" s="80" t="s">
         <v>47</v>
       </c>
       <c r="G41" s="30" t="s">
@@ -3097,184 +3078,197 @@
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="88"/>
+      <c r="D42" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="89"/>
+      <c r="F42" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="97" t="s">
+      <c r="D43" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="97"/>
-      <c r="F42" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="34" t="s">
+      <c r="E43" s="89"/>
+      <c r="F43" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="95" t="s">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="95" t="s">
+      <c r="D44" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="95"/>
-      <c r="F43" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="34" t="s">
+      <c r="E44" s="88"/>
+      <c r="F44" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" s="34" t="s">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="34" t="s">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" s="34" t="s">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" s="34" t="s">
+    <row r="48" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="34" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" s="34" t="s">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" s="83" t="s">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="81" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50" s="83" t="s">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="81" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="95"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" s="34" t="s">
-        <v>148</v>
-      </c>
-    </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" s="83" t="s">
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="88"/>
+      <c r="D53" s="88"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" s="81" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="95"/>
-      <c r="D53" s="97" t="s">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="88"/>
+      <c r="D54" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="97"/>
-      <c r="F53" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" s="83" t="s">
+      <c r="E54" s="89"/>
+      <c r="F54" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="81" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="30" t="s">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D54" s="97" t="s">
+      <c r="D55" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="E54" s="97"/>
-      <c r="F54" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="G54" s="83" t="s">
+      <c r="E55" s="89"/>
+      <c r="F55" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="81" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D43:E52"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D54:E54"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="D4:D17"/>
-    <mergeCell ref="C4:C41"/>
+    <mergeCell ref="C4:C42"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="D18:D29"/>
-    <mergeCell ref="D30:E39"/>
-    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="D18:D30"/>
+    <mergeCell ref="D31:E40"/>
     <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="C44:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D44:E53"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
+++ b/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra\Documents\GitHub\TP-GESTION-PROGRAMACION-2\SG - CLASES SEPARADAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9AA2AB2B-8EA2-46EE-8075-BEE2FBF7B554}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BA459B22-882B-4E41-8914-FC18027D0647}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="2" xr2:uid="{A683A0A2-948E-478E-9454-D16ED83D3AB7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="1" xr2:uid="{A683A0A2-948E-478E-9454-D16ED83D3AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="PRECIO DE COSTO" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="151">
   <si>
     <t xml:space="preserve">PRECIO </t>
   </si>
@@ -129,15 +129,6 @@
     <t>KRAFT</t>
   </si>
   <si>
-    <t>CHICLES</t>
-  </si>
-  <si>
-    <t>BULTO</t>
-  </si>
-  <si>
-    <t>CRITICO</t>
-  </si>
-  <si>
     <t>MASSALIN</t>
   </si>
   <si>
@@ -411,9 +402,6 @@
     <t>gimenez</t>
   </si>
   <si>
-    <t>(backup)</t>
-  </si>
-  <si>
     <t>coca cola x600ml</t>
   </si>
   <si>
@@ -478,6 +466,21 @@
   </si>
   <si>
     <t>MODIFICAR RETENCIONES -&gt;INTERFAZ (se superponen lineas retenciones)</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>RENT</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -827,11 +830,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1054,18 +1070,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1604,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC7CB8-BD08-475E-BF73-5156E3B0BE3D}">
-  <dimension ref="B1:Q29"/>
+  <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,969 +1639,975 @@
     <col min="3" max="3" width="8.28515625" style="37" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.140625" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="36"/>
-    <col min="16" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="16384" width="11" style="37"/>
+    <col min="7" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="52" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="3.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="85" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
       <c r="E1" s="87"/>
       <c r="F1" s="37"/>
-      <c r="L1" s="36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="36"/>
+    </row>
+    <row r="2" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="50" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="51" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F2" s="37"/>
-      <c r="G2" s="72" t="s">
+      <c r="I2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="I2" s="72" t="s">
+      <c r="J2" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="72" t="s">
+      <c r="L2" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="O2" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="72" t="s">
-        <v>80</v>
-      </c>
       <c r="P2" s="72" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="Q2" s="72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="R2" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="72" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" s="49">
         <v>1</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F3" s="37"/>
-      <c r="G3" s="70">
+      <c r="I3" s="70">
         <v>1001</v>
       </c>
-      <c r="H3" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" s="70" t="s">
+      <c r="J3" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="59">
+      <c r="L3" s="59">
         <v>12</v>
       </c>
-      <c r="K3" s="59">
+      <c r="M3" s="59">
         <v>36</v>
       </c>
-      <c r="L3" s="71">
-        <f>J3*10</f>
+      <c r="N3" s="71">
+        <f>L3*10</f>
         <v>120</v>
       </c>
-      <c r="M3" s="70" t="s">
+      <c r="O3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="70">
+      <c r="P3" s="70">
         <v>50</v>
       </c>
-      <c r="O3" s="70">
-        <v>30</v>
-      </c>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q3" s="70">
+        <v>15</v>
+      </c>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4" s="41">
         <v>2</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F4" s="37"/>
-      <c r="G4" s="53">
+      <c r="I4" s="53">
         <v>1002</v>
       </c>
-      <c r="H4" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="53" t="s">
+      <c r="J4" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="60">
+      <c r="L4" s="60">
         <v>8</v>
       </c>
-      <c r="K4" s="60">
+      <c r="M4" s="60">
         <v>48</v>
       </c>
-      <c r="L4" s="64">
-        <f t="shared" ref="L4:L18" si="0">J4*10</f>
+      <c r="N4" s="64">
+        <f>L4*10</f>
         <v>80</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="O4" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="53">
+      <c r="P4" s="53">
         <v>50</v>
       </c>
-      <c r="O4" s="53">
-        <v>60</v>
-      </c>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q4" s="53">
+        <v>30</v>
+      </c>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="44" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5" s="41">
         <v>3</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F5" s="37"/>
-      <c r="G5" s="53">
+      <c r="I5" s="53">
         <v>2001</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="J5" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="60">
+        <v>12</v>
+      </c>
+      <c r="M5" s="60">
+        <v>12</v>
+      </c>
+      <c r="N5" s="64">
+        <f>L5*10</f>
+        <v>120</v>
+      </c>
+      <c r="O5" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="53">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="53">
+        <v>15</v>
+      </c>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="94">
+        <v>4</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="I6" s="53">
+        <v>2002</v>
+      </c>
+      <c r="J6" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="60">
+        <v>6</v>
+      </c>
+      <c r="M6" s="60">
+        <v>6</v>
+      </c>
+      <c r="N6" s="64">
+        <f>L6*10</f>
+        <v>60</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="53">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="53">
+        <v>25</v>
+      </c>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="95"/>
+    </row>
+    <row r="7" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="42">
+        <v>5</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="I7" s="53">
+        <v>3001</v>
+      </c>
+      <c r="J7" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="60">
+        <v>20</v>
+      </c>
+      <c r="M7" s="60">
+        <v>20</v>
+      </c>
+      <c r="N7" s="64">
+        <f>L7*10</f>
+        <v>200</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="53">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="53">
+        <v>10</v>
+      </c>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="95"/>
+    </row>
+    <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="37"/>
+      <c r="I8" s="53">
+        <v>3002</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="60">
+        <v>21</v>
+      </c>
+      <c r="M8" s="60">
+        <v>21</v>
+      </c>
+      <c r="N8" s="64">
+        <f>L8*10</f>
+        <v>210</v>
+      </c>
+      <c r="O8" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="53">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="53">
+        <v>14</v>
+      </c>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="95"/>
+    </row>
+    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="I9" s="53">
+        <v>3003</v>
+      </c>
+      <c r="J9" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="K9" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="60">
+        <v>20</v>
+      </c>
+      <c r="M9" s="60">
+        <v>60</v>
+      </c>
+      <c r="N9" s="64">
+        <f>L9*10</f>
+        <v>200</v>
+      </c>
+      <c r="O9" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="53">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="53">
+        <v>7</v>
+      </c>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="95"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="40">
+        <v>34</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="I10" s="53">
+        <v>5001</v>
+      </c>
+      <c r="J10" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="60">
+        <v>10</v>
+      </c>
+      <c r="M10" s="60">
+        <v>40</v>
+      </c>
+      <c r="N10" s="64">
+        <f>L10*10</f>
+        <v>100</v>
+      </c>
+      <c r="O10" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="53">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="53">
+        <v>40</v>
+      </c>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="95"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="41">
+        <v>29</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="I11" s="53">
+        <v>5002</v>
+      </c>
+      <c r="J11" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="60">
+        <v>10</v>
+      </c>
+      <c r="M11" s="60">
+        <v>20</v>
+      </c>
+      <c r="N11" s="64">
+        <f>L11*10</f>
+        <v>100</v>
+      </c>
+      <c r="O11" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="53">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="53">
+        <v>60</v>
+      </c>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="95"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="41">
+        <v>22</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="I12" s="53">
+        <v>6001</v>
+      </c>
+      <c r="J12" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="60">
+        <v>10</v>
+      </c>
+      <c r="M12" s="60">
+        <v>60</v>
+      </c>
+      <c r="N12" s="64">
+        <f>L12*10</f>
+        <v>100</v>
+      </c>
+      <c r="O12" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="53">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="53">
+        <v>40</v>
+      </c>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="95"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="41">
+        <v>60</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="I13" s="53">
+        <v>6002</v>
+      </c>
+      <c r="J13" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="60">
+        <v>10</v>
+      </c>
+      <c r="M13" s="60">
+        <v>60</v>
+      </c>
+      <c r="N13" s="64">
+        <f>L13*10</f>
+        <v>100</v>
+      </c>
+      <c r="O13" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="53">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="53">
+        <v>60</v>
+      </c>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="95"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="41">
+        <v>19</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="I14" s="54">
+        <v>8001</v>
+      </c>
+      <c r="J14" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="61">
+        <v>12</v>
+      </c>
+      <c r="M14" s="63">
+        <v>24</v>
+      </c>
+      <c r="N14" s="92"/>
+      <c r="O14" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="54">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+    </row>
+    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="42">
+        <v>21</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="I15" s="54">
+        <v>8002</v>
+      </c>
+      <c r="J15" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="61">
+        <v>12</v>
+      </c>
+      <c r="M15" s="61">
+        <v>48</v>
+      </c>
+      <c r="N15" s="92"/>
+      <c r="O15" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="54">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F16" s="37"/>
+      <c r="I16" s="53">
+        <v>9001</v>
+      </c>
+      <c r="J16" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="60">
+        <v>12</v>
+      </c>
+      <c r="M16" s="60">
+        <v>12</v>
+      </c>
+      <c r="N16" s="64">
+        <f>L16*10</f>
+        <v>120</v>
+      </c>
+      <c r="O16" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="53">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="53">
+        <v>90</v>
+      </c>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F17" s="37"/>
+      <c r="I17" s="53">
+        <v>9002</v>
+      </c>
+      <c r="J17" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="60">
+        <v>36</v>
+      </c>
+      <c r="M17" s="60">
+        <v>36</v>
+      </c>
+      <c r="N17" s="64">
+        <f>L17*10</f>
+        <v>360</v>
+      </c>
+      <c r="O17" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="53">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="53">
+        <v>15</v>
+      </c>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+    </row>
+    <row r="18" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="37"/>
+      <c r="I18" s="55">
+        <v>9003</v>
+      </c>
+      <c r="J18" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="62">
+        <v>20</v>
+      </c>
+      <c r="M18" s="62">
+        <v>60</v>
+      </c>
+      <c r="N18" s="66">
+        <f>L18*10</f>
+        <v>200</v>
+      </c>
+      <c r="O18" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="55">
+        <v>80</v>
+      </c>
+      <c r="Q18" s="55">
+        <v>7</v>
+      </c>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+    </row>
+    <row r="19" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="37"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="O19"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="36"/>
+      <c r="R19"/>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="6:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="37"/>
+      <c r="I20" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="N20" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20"/>
+      <c r="Q20" s="36"/>
+      <c r="R20"/>
+      <c r="S20"/>
+    </row>
+    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F21" s="37"/>
+      <c r="I21" s="70">
+        <v>100</v>
+      </c>
+      <c r="J21" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="59">
+        <v>21</v>
+      </c>
+      <c r="M21" s="70">
+        <v>1.3</v>
+      </c>
+      <c r="N21" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="O21"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="38"/>
+    </row>
+    <row r="22" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F22" s="37"/>
+      <c r="I22" s="53">
+        <v>200</v>
+      </c>
+      <c r="J22" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="60">
-        <v>12</v>
-      </c>
-      <c r="K5" s="60">
-        <v>12</v>
-      </c>
-      <c r="L5" s="64">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="M5" s="53" t="s">
+      <c r="K22" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="53">
-        <v>50</v>
-      </c>
-      <c r="O5" s="53">
+      <c r="L22" s="60">
+        <v>21</v>
+      </c>
+      <c r="M22" s="53">
+        <v>2.5</v>
+      </c>
+      <c r="N22" s="60">
+        <v>3</v>
+      </c>
+      <c r="O22"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="38"/>
+    </row>
+    <row r="23" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F23" s="37"/>
+      <c r="I23" s="53">
+        <v>300</v>
+      </c>
+      <c r="J23" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-    </row>
-    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="42">
-        <v>4</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="53">
-        <v>2002</v>
-      </c>
-      <c r="H6" s="76" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="60">
-        <v>6</v>
-      </c>
-      <c r="K6" s="60">
-        <v>6</v>
-      </c>
-      <c r="L6" s="64">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="M6" s="53" t="s">
+      <c r="K23" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="60">
+        <v>21</v>
+      </c>
+      <c r="M23" s="53">
+        <v>2.5</v>
+      </c>
+      <c r="N23" s="60">
+        <v>1.3</v>
+      </c>
+      <c r="O23"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="38"/>
+    </row>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F24" s="37"/>
+      <c r="I24" s="53">
+        <v>500</v>
+      </c>
+      <c r="J24" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="60">
+        <v>21</v>
+      </c>
+      <c r="M24" s="53">
+        <v>3.5</v>
+      </c>
+      <c r="N24" s="60">
+        <v>0.3</v>
+      </c>
+      <c r="O24"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="38"/>
+    </row>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F25" s="37"/>
+      <c r="I25" s="53">
+        <v>600</v>
+      </c>
+      <c r="J25" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="60">
+        <v>21</v>
+      </c>
+      <c r="M25" s="53">
+        <v>3.5</v>
+      </c>
+      <c r="N25" s="60">
+        <v>2</v>
+      </c>
+      <c r="O25"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="38"/>
+    </row>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F26" s="37"/>
+      <c r="I26" s="54">
+        <v>800</v>
+      </c>
+      <c r="J26" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="53">
-        <v>50</v>
-      </c>
-      <c r="O6" s="53">
-        <v>55</v>
-      </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-    </row>
-    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="53">
-        <v>3001</v>
-      </c>
-      <c r="H7" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="60">
-        <v>20</v>
-      </c>
-      <c r="K7" s="60">
-        <v>20</v>
-      </c>
-      <c r="L7" s="64">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="M7" s="53" t="s">
+      <c r="L26" s="61">
+        <v>21</v>
+      </c>
+      <c r="M26" s="65"/>
+      <c r="N26" s="61"/>
+      <c r="O26"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="38"/>
+    </row>
+    <row r="27" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="37"/>
+      <c r="I27" s="55">
+        <v>900</v>
+      </c>
+      <c r="J27" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="53">
-        <v>80</v>
-      </c>
-      <c r="O7" s="53">
-        <v>20</v>
-      </c>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-    </row>
-    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="53">
-        <v>3002</v>
-      </c>
-      <c r="H8" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="60">
+      <c r="L27" s="62">
         <v>21</v>
       </c>
-      <c r="K8" s="60">
-        <v>21</v>
-      </c>
-      <c r="L8" s="64">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="M8" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="53">
-        <v>80</v>
-      </c>
-      <c r="O8" s="53">
-        <v>20</v>
-      </c>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="40">
-        <v>34</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="53">
-        <v>3003</v>
-      </c>
-      <c r="H9" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="60">
-        <v>20</v>
-      </c>
-      <c r="K9" s="60">
-        <v>60</v>
-      </c>
-      <c r="L9" s="64">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="M9" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="53">
-        <v>80</v>
-      </c>
-      <c r="O9" s="53">
-        <v>15</v>
-      </c>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="41">
-        <v>29</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="53">
-        <v>5001</v>
-      </c>
-      <c r="H10" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="60">
-        <v>10</v>
-      </c>
-      <c r="K10" s="60">
-        <v>40</v>
-      </c>
-      <c r="L10" s="64">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="M10" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="53">
-        <v>35</v>
-      </c>
-      <c r="O10" s="53">
-        <v>70</v>
-      </c>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="41">
-        <v>22</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="53">
-        <v>5002</v>
-      </c>
-      <c r="H11" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="60">
-        <v>10</v>
-      </c>
-      <c r="K11" s="60">
-        <v>20</v>
-      </c>
-      <c r="L11" s="64">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="M11" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="53">
-        <v>35</v>
-      </c>
-      <c r="O11" s="53">
-        <v>70</v>
-      </c>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="41">
-        <v>60</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="53">
-        <v>6001</v>
-      </c>
-      <c r="H12" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="I12" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="60">
-        <v>10</v>
-      </c>
-      <c r="K12" s="60">
-        <v>60</v>
-      </c>
-      <c r="L12" s="64">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="M12" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="53">
-        <v>35</v>
-      </c>
-      <c r="O12" s="53">
-        <v>65</v>
-      </c>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="41">
-        <v>19</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="53">
-        <v>6002</v>
-      </c>
-      <c r="H13" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="60">
-        <v>10</v>
-      </c>
-      <c r="K13" s="60">
-        <v>60</v>
-      </c>
-      <c r="L13" s="64">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="M13" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" s="53">
-        <v>35</v>
-      </c>
-      <c r="O13" s="53">
-        <v>70</v>
-      </c>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-    </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="42">
-        <v>21</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="54">
-        <v>8001</v>
-      </c>
-      <c r="H14" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="61">
-        <v>12</v>
-      </c>
-      <c r="K14" s="63">
-        <v>24</v>
-      </c>
-      <c r="L14" s="65">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="M14" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="54">
-        <v>50</v>
-      </c>
-      <c r="O14" s="54">
-        <v>25</v>
-      </c>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F15" s="37"/>
-      <c r="G15" s="54">
-        <v>8002</v>
-      </c>
-      <c r="H15" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="I15" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="61">
-        <v>12</v>
-      </c>
-      <c r="K15" s="61">
-        <v>48</v>
-      </c>
-      <c r="L15" s="65">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="M15" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="54">
-        <v>50</v>
-      </c>
-      <c r="O15" s="54">
-        <v>40</v>
-      </c>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F16" s="37"/>
-      <c r="G16" s="53">
-        <v>9001</v>
-      </c>
-      <c r="H16" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="60">
-        <v>12</v>
-      </c>
-      <c r="K16" s="60">
-        <v>12</v>
-      </c>
-      <c r="L16" s="64">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="M16" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="53">
-        <v>80</v>
-      </c>
-      <c r="O16" s="53">
-        <v>120</v>
-      </c>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-    </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F17" s="37"/>
-      <c r="G17" s="53">
-        <v>9002</v>
-      </c>
-      <c r="H17" s="76" t="s">
-        <v>142</v>
-      </c>
-      <c r="I17" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="60">
-        <v>36</v>
-      </c>
-      <c r="K17" s="60">
-        <v>36</v>
-      </c>
-      <c r="L17" s="64">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="M17" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="53">
-        <v>80</v>
-      </c>
-      <c r="O17" s="53">
-        <v>20</v>
-      </c>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-    </row>
-    <row r="18" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="37"/>
-      <c r="G18" s="55">
-        <v>9003</v>
-      </c>
-      <c r="H18" s="78" t="s">
-        <v>143</v>
-      </c>
-      <c r="I18" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="62">
-        <v>20</v>
-      </c>
-      <c r="K18" s="62">
-        <v>60</v>
-      </c>
-      <c r="L18" s="66">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="M18" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="55">
-        <v>80</v>
-      </c>
-      <c r="O18" s="55">
-        <v>10</v>
-      </c>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-    </row>
-    <row r="19" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="37"/>
-      <c r="N19" s="29"/>
-    </row>
-    <row r="20" spans="6:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="37"/>
-      <c r="G20" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="M20" s="37"/>
-    </row>
-    <row r="21" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F21" s="37"/>
-      <c r="G21" s="70">
-        <v>100</v>
-      </c>
-      <c r="H21" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="59">
-        <v>21</v>
-      </c>
-      <c r="K21" s="59">
-        <v>2.5</v>
-      </c>
-      <c r="L21" s="70">
-        <v>1.3</v>
-      </c>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-    </row>
-    <row r="22" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F22" s="37"/>
-      <c r="G22" s="53">
-        <v>200</v>
-      </c>
-      <c r="H22" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="60">
-        <v>21</v>
-      </c>
-      <c r="K22" s="60">
-        <v>3</v>
-      </c>
-      <c r="L22" s="53">
-        <v>2.5</v>
-      </c>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-    </row>
-    <row r="23" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F23" s="37"/>
-      <c r="G23" s="53">
-        <v>300</v>
-      </c>
-      <c r="H23" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="60">
-        <v>21</v>
-      </c>
-      <c r="K23" s="60">
-        <v>1.3</v>
-      </c>
-      <c r="L23" s="53">
-        <v>2.5</v>
-      </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-    </row>
-    <row r="24" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F24" s="37"/>
-      <c r="G24" s="53">
-        <v>500</v>
-      </c>
-      <c r="H24" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="60">
-        <v>21</v>
-      </c>
-      <c r="K24" s="60">
-        <v>0.3</v>
-      </c>
-      <c r="L24" s="53">
+      <c r="M27" s="55">
         <v>3.5</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-    </row>
-    <row r="25" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F25" s="37"/>
-      <c r="G25" s="53">
-        <v>600</v>
-      </c>
-      <c r="H25" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="60">
-        <v>21</v>
-      </c>
-      <c r="K25" s="60">
-        <v>2</v>
-      </c>
-      <c r="L25" s="53">
-        <v>3.5</v>
-      </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-    </row>
-    <row r="26" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F26" s="37"/>
-      <c r="G26" s="54">
-        <v>800</v>
-      </c>
-      <c r="H26" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="61">
-        <v>21</v>
-      </c>
-      <c r="K26" s="61"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-    </row>
-    <row r="27" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="37"/>
-      <c r="G27" s="55">
-        <v>900</v>
-      </c>
-      <c r="H27" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="62">
-        <v>21</v>
-      </c>
-      <c r="K27" s="62">
+      <c r="N27" s="62">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L27" s="55">
-        <v>3.5</v>
-      </c>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="38"/>
+      <c r="O27"/>
       <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-    </row>
-    <row r="28" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="Q27" s="38"/>
+    </row>
+    <row r="28" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F28" s="37"/>
-      <c r="M28" s="37"/>
+      <c r="J28"/>
+      <c r="L28" s="52"/>
       <c r="N28" s="37"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="38"/>
       <c r="Q28" s="37"/>
     </row>
-    <row r="29" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F29" s="37"/>
-      <c r="M29" s="37"/>
+      <c r="J29"/>
+      <c r="L29" s="52"/>
       <c r="N29" s="37"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="38"/>
       <c r="Q29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2590,7 +2618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12CEBBD-090D-4434-A119-3402FA7D8625}">
   <dimension ref="C2:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -2606,649 +2634,654 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
+      <c r="C2" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="G3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="32" t="s">
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F7" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="33" t="s">
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="88" t="s">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
       <c r="E10" s="79"/>
       <c r="F10" s="80" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88" t="s">
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="30" t="s">
+      <c r="F14" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="35" t="s">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="83" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="89"/>
+      <c r="D18" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88" t="s">
+      <c r="E18" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="34" t="s">
+      <c r="F18" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="83" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="88"/>
-      <c r="D18" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="30" t="s">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88" t="s">
+      <c r="F20" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="83" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
       <c r="F30" s="80"/>
       <c r="G30" s="30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="88"/>
-      <c r="D31" s="88" t="s">
+      <c r="C31" s="89"/>
+      <c r="D31" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="89"/>
+      <c r="F31" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="88"/>
-      <c r="F31" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="30" t="s">
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="89"/>
+      <c r="D41" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="91"/>
+      <c r="F41" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="89"/>
+      <c r="D42" s="91" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="88"/>
-      <c r="D41" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="89"/>
-      <c r="F41" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" s="30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="88"/>
-      <c r="D42" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="89"/>
+      <c r="E42" s="91"/>
       <c r="F42" s="80" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="91"/>
+      <c r="F43" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="89" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="89" t="s">
+      <c r="E44" s="89"/>
+      <c r="F44" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="89"/>
-      <c r="F43" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="34" t="s">
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G51" s="81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="89"/>
+      <c r="D54" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="91"/>
+      <c r="F54" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="81" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="88"/>
-      <c r="F44" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" s="34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" s="34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" s="34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" s="34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50" s="81" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" s="81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" s="34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G53" s="81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="88"/>
-      <c r="D54" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="89"/>
-      <c r="F54" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G54" s="81" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C55" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D55" s="89" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="89"/>
+        <v>99</v>
+      </c>
+      <c r="D55" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="91"/>
       <c r="F55" s="80" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G55" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C44:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D44:E53"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D55:E55"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E7:E9"/>
@@ -3264,11 +3297,6 @@
     <mergeCell ref="D31:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
-    <mergeCell ref="C44:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D44:E53"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3280,7 +3308,7 @@
   <dimension ref="B2:S9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
+++ b/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra\Documents\GitHub\TP-GESTION-PROGRAMACION-2\SG - CLASES SEPARADAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BA459B22-882B-4E41-8914-FC18027D0647}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1A937F7A-E438-4BF6-8574-DEF6598ABD45}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="1" xr2:uid="{A683A0A2-948E-478E-9454-D16ED83D3AB7}"/>
   </bookViews>
@@ -1058,36 +1058,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1421,15 +1421,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1513,15 +1513,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1629,7 +1629,7 @@
   <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,12 +1652,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
       <c r="F1" s="37"/>
       <c r="L1" s="36"/>
     </row>
@@ -1739,7 +1739,7 @@
         <v>36</v>
       </c>
       <c r="N3" s="71">
-        <f>L3*10</f>
+        <f t="shared" ref="N3:N13" si="0">L3*10</f>
         <v>120</v>
       </c>
       <c r="O3" s="70" t="s">
@@ -1784,7 +1784,7 @@
         <v>48</v>
       </c>
       <c r="N4" s="64">
-        <f>L4*10</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="O4" s="53" t="s">
@@ -1829,7 +1829,7 @@
         <v>12</v>
       </c>
       <c r="N5" s="64">
-        <f>L5*10</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="O5" s="53" t="s">
@@ -1845,16 +1845,16 @@
       <c r="S5" s="68"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="86">
         <v>4</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="86" t="s">
         <v>110</v>
       </c>
       <c r="F6" s="37"/>
@@ -1874,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="N6" s="64">
-        <f>L6*10</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="O6" s="53" t="s">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="R6" s="53"/>
       <c r="S6" s="53"/>
-      <c r="T6" s="95"/>
+      <c r="T6" s="87"/>
     </row>
     <row r="7" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="45" t="s">
@@ -1920,7 +1920,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="64">
-        <f>L7*10</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="O7" s="53" t="s">
@@ -1934,15 +1934,15 @@
       </c>
       <c r="R7" s="68"/>
       <c r="S7" s="68"/>
-      <c r="T7" s="95"/>
+      <c r="T7" s="87"/>
     </row>
     <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="37"/>
       <c r="I8" s="53">
         <v>3002</v>
@@ -1960,7 +1960,7 @@
         <v>21</v>
       </c>
       <c r="N8" s="64">
-        <f>L8*10</f>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="O8" s="56" t="s">
@@ -1970,11 +1970,11 @@
         <v>80</v>
       </c>
       <c r="Q8" s="53">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R8" s="68"/>
       <c r="S8" s="68"/>
-      <c r="T8" s="95"/>
+      <c r="T8" s="87"/>
     </row>
     <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="47" t="s">
@@ -2006,7 +2006,7 @@
         <v>60</v>
       </c>
       <c r="N9" s="64">
-        <f>L9*10</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="O9" s="56" t="s">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="R9" s="68"/>
       <c r="S9" s="68"/>
-      <c r="T9" s="95"/>
+      <c r="T9" s="87"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="43" t="s">
@@ -2052,7 +2052,7 @@
         <v>40</v>
       </c>
       <c r="N10" s="64">
-        <f>L10*10</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="O10" s="53" t="s">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="R10" s="68"/>
       <c r="S10" s="68"/>
-      <c r="T10" s="95"/>
+      <c r="T10" s="87"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
@@ -2098,7 +2098,7 @@
         <v>20</v>
       </c>
       <c r="N11" s="64">
-        <f>L11*10</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="O11" s="53" t="s">
@@ -2108,11 +2108,11 @@
         <v>35</v>
       </c>
       <c r="Q11" s="53">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="R11" s="68"/>
       <c r="S11" s="68"/>
-      <c r="T11" s="95"/>
+      <c r="T11" s="87"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="44" t="s">
@@ -2144,7 +2144,7 @@
         <v>60</v>
       </c>
       <c r="N12" s="64">
-        <f>L12*10</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="O12" s="67" t="s">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="R12" s="68"/>
       <c r="S12" s="68"/>
-      <c r="T12" s="95"/>
+      <c r="T12" s="87"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="44" t="s">
@@ -2190,7 +2190,7 @@
         <v>60</v>
       </c>
       <c r="N13" s="64">
-        <f>L13*10</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="O13" s="53" t="s">
@@ -2200,11 +2200,11 @@
         <v>35</v>
       </c>
       <c r="Q13" s="53">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="R13" s="53"/>
       <c r="S13" s="53"/>
-      <c r="T13" s="95"/>
+      <c r="T13" s="87"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="44" t="s">
@@ -2235,7 +2235,7 @@
       <c r="M14" s="63">
         <v>24</v>
       </c>
-      <c r="N14" s="92"/>
+      <c r="N14" s="84"/>
       <c r="O14" s="54" t="s">
         <v>28</v>
       </c>
@@ -2275,7 +2275,7 @@
       <c r="M15" s="61">
         <v>48</v>
       </c>
-      <c r="N15" s="92"/>
+      <c r="N15" s="84"/>
       <c r="O15" s="54" t="s">
         <v>28</v>
       </c>
@@ -2304,8 +2304,7 @@
         <v>12</v>
       </c>
       <c r="N16" s="64">
-        <f>L16*10</f>
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="O16" s="53" t="s">
         <v>31</v>
@@ -2314,7 +2313,7 @@
         <v>80</v>
       </c>
       <c r="Q16" s="53">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="R16" s="68"/>
       <c r="S16" s="68"/>
@@ -2347,7 +2346,7 @@
         <v>80</v>
       </c>
       <c r="Q17" s="53">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
@@ -2634,13 +2633,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="31" t="s">
@@ -2660,13 +2659,13 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="92" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="80" t="s">
@@ -2677,9 +2676,9 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="80" t="s">
         <v>44</v>
       </c>
@@ -2688,9 +2687,9 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="80" t="s">
         <v>44</v>
       </c>
@@ -2699,9 +2698,9 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89" t="s">
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="80" t="s">
@@ -2712,9 +2711,9 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
       <c r="F8" s="80" t="s">
         <v>44</v>
       </c>
@@ -2723,9 +2722,9 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="80" t="s">
         <v>44</v>
       </c>
@@ -2734,8 +2733,8 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="79"/>
       <c r="F10" s="80" t="s">
         <v>44</v>
@@ -2745,9 +2744,9 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89" t="s">
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="80" t="s">
@@ -2758,9 +2757,9 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="80" t="s">
         <v>44</v>
       </c>
@@ -2769,8 +2768,8 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="35" t="s">
         <v>56</v>
       </c>
@@ -2782,9 +2781,9 @@
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="80" t="s">
@@ -2795,9 +2794,9 @@
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="80" t="s">
         <v>44</v>
       </c>
@@ -2806,9 +2805,9 @@
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="80" t="s">
         <v>44</v>
       </c>
@@ -2817,9 +2816,9 @@
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="80" t="s">
         <v>44</v>
       </c>
@@ -2828,11 +2827,11 @@
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="89"/>
-      <c r="D18" s="89" t="s">
+      <c r="C18" s="92"/>
+      <c r="D18" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="95" t="s">
         <v>60</v>
       </c>
       <c r="F18" s="80" t="s">
@@ -2843,9 +2842,9 @@
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="95"/>
       <c r="F19" s="80" t="s">
         <v>44</v>
       </c>
@@ -2854,9 +2853,9 @@
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89" t="s">
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92" t="s">
         <v>64</v>
       </c>
       <c r="F20" s="80" t="s">
@@ -2867,9 +2866,9 @@
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="80" t="s">
         <v>44</v>
       </c>
@@ -2878,9 +2877,9 @@
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="80" t="s">
         <v>44</v>
       </c>
@@ -2889,9 +2888,9 @@
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89" t="s">
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92" t="s">
         <v>54</v>
       </c>
       <c r="F23" s="80" t="s">
@@ -2902,9 +2901,9 @@
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
       <c r="F24" s="80" t="s">
         <v>44</v>
       </c>
@@ -2913,8 +2912,8 @@
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="35" t="s">
         <v>56</v>
       </c>
@@ -2926,9 +2925,9 @@
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89" t="s">
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92" t="s">
         <v>144</v>
       </c>
       <c r="F26" s="80" t="s">
@@ -2939,9 +2938,9 @@
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="80" t="s">
         <v>44</v>
       </c>
@@ -2950,9 +2949,9 @@
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
       <c r="F28" s="80" t="s">
         <v>44</v>
       </c>
@@ -2961,9 +2960,9 @@
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="80" t="s">
         <v>44</v>
       </c>
@@ -2972,20 +2971,20 @@
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="80"/>
       <c r="G30" s="30" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="89"/>
-      <c r="D31" s="89" t="s">
+      <c r="C31" s="92"/>
+      <c r="D31" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="89"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="80" t="s">
         <v>44</v>
       </c>
@@ -2994,9 +2993,9 @@
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
       <c r="F32" s="80" t="s">
         <v>44</v>
       </c>
@@ -3005,9 +3004,9 @@
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
       <c r="F33" s="80" t="s">
         <v>44</v>
       </c>
@@ -3016,9 +3015,9 @@
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
       <c r="F34" s="80" t="s">
         <v>44</v>
       </c>
@@ -3027,9 +3026,9 @@
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
       <c r="F35" s="80" t="s">
         <v>44</v>
       </c>
@@ -3038,9 +3037,9 @@
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
       <c r="F36" s="80" t="s">
         <v>44</v>
       </c>
@@ -3049,9 +3048,9 @@
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
       <c r="F37" s="80" t="s">
         <v>44</v>
       </c>
@@ -3060,9 +3059,9 @@
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
       <c r="F38" s="80" t="s">
         <v>44</v>
       </c>
@@ -3071,9 +3070,9 @@
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
       <c r="F39" s="80" t="s">
         <v>44</v>
       </c>
@@ -3082,9 +3081,9 @@
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
       <c r="F40" s="80" t="s">
         <v>44</v>
       </c>
@@ -3093,11 +3092,11 @@
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="89"/>
-      <c r="D41" s="91" t="s">
+      <c r="C41" s="92"/>
+      <c r="D41" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="91"/>
+      <c r="E41" s="93"/>
       <c r="F41" s="80" t="s">
         <v>44</v>
       </c>
@@ -3106,11 +3105,11 @@
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="89"/>
-      <c r="D42" s="91" t="s">
+      <c r="C42" s="92"/>
+      <c r="D42" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="91"/>
+      <c r="E42" s="93"/>
       <c r="F42" s="80" t="s">
         <v>44</v>
       </c>
@@ -3122,10 +3121,10 @@
       <c r="C43" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="91" t="s">
+      <c r="D43" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="91"/>
+      <c r="E43" s="93"/>
       <c r="F43" s="80" t="s">
         <v>44</v>
       </c>
@@ -3134,13 +3133,13 @@
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="89" t="s">
+      <c r="C44" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="89" t="s">
+      <c r="D44" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="89"/>
+      <c r="E44" s="92"/>
       <c r="F44" s="80" t="s">
         <v>44</v>
       </c>
@@ -3149,9 +3148,9 @@
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
       <c r="F45" s="80" t="s">
         <v>44</v>
       </c>
@@ -3160,9 +3159,9 @@
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
       <c r="F46" s="80" t="s">
         <v>44</v>
       </c>
@@ -3171,9 +3170,9 @@
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
       <c r="F47" s="80" t="s">
         <v>44</v>
       </c>
@@ -3182,9 +3181,9 @@
       </c>
     </row>
     <row r="48" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
       <c r="F48" s="80" t="s">
         <v>44</v>
       </c>
@@ -3193,9 +3192,9 @@
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="89"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
       <c r="F49" s="80" t="s">
         <v>44</v>
       </c>
@@ -3204,9 +3203,9 @@
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
       <c r="F50" s="80" t="s">
         <v>44</v>
       </c>
@@ -3215,9 +3214,9 @@
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
       <c r="F51" s="80" t="s">
         <v>44</v>
       </c>
@@ -3226,9 +3225,9 @@
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
       <c r="F52" s="80" t="s">
         <v>44</v>
       </c>
@@ -3237,9 +3236,9 @@
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
       <c r="F53" s="80" t="s">
         <v>44</v>
       </c>
@@ -3248,11 +3247,11 @@
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="89"/>
-      <c r="D54" s="91" t="s">
+      <c r="C54" s="92"/>
+      <c r="D54" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="91"/>
+      <c r="E54" s="93"/>
       <c r="F54" s="80" t="s">
         <v>44</v>
       </c>
@@ -3264,10 +3263,10 @@
       <c r="C55" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="91" t="s">
+      <c r="D55" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E55" s="91"/>
+      <c r="E55" s="93"/>
       <c r="F55" s="80" t="s">
         <v>44</v>
       </c>
@@ -3277,11 +3276,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C44:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D44:E53"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D55:E55"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E7:E9"/>
@@ -3297,6 +3291,11 @@
     <mergeCell ref="D31:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
+    <mergeCell ref="C44:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D44:E53"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
+++ b/SG - CLASES SEPARADAS/BASE DE DATOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra\Documents\GitHub\TP-GESTION-PROGRAMACION-2\SG - CLASES SEPARADAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1A937F7A-E438-4BF6-8574-DEF6598ABD45}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4CF9CB79-C438-47D1-A893-2E4C65DC594A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" firstSheet="1" activeTab="1" xr2:uid="{A683A0A2-948E-478E-9454-D16ED83D3AB7}"/>
   </bookViews>
@@ -1076,17 +1076,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1628,7 +1628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABC7CB8-BD08-475E-BF73-5156E3B0BE3D}">
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
@@ -2318,7 +2318,7 @@
       <c r="R16" s="68"/>
       <c r="S16" s="68"/>
     </row>
-    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F17" s="37"/>
       <c r="I17" s="53">
         <v>9002</v>
@@ -2351,7 +2351,7 @@
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
     </row>
-    <row r="18" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="37"/>
       <c r="I18" s="55">
         <v>9003</v>
@@ -2384,7 +2384,7 @@
       <c r="R18" s="69"/>
       <c r="S18" s="69"/>
     </row>
-    <row r="19" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="37"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2396,7 +2396,7 @@
       <c r="R19"/>
       <c r="S19"/>
     </row>
-    <row r="20" spans="6:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F20" s="37"/>
       <c r="I20" s="72" t="s">
         <v>16</v>
@@ -2421,7 +2421,7 @@
       <c r="R20"/>
       <c r="S20"/>
     </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F21" s="37"/>
       <c r="I21" s="70">
         <v>100</v>
@@ -2444,8 +2444,11 @@
       <c r="O21"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="38"/>
-    </row>
-    <row r="22" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F22" s="37"/>
       <c r="I22" s="53">
         <v>200</v>
@@ -2469,7 +2472,7 @@
       <c r="P22" s="37"/>
       <c r="Q22" s="38"/>
     </row>
-    <row r="23" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F23" s="37"/>
       <c r="I23" s="53">
         <v>300</v>
@@ -2493,7 +2496,7 @@
       <c r="P23" s="37"/>
       <c r="Q23" s="38"/>
     </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F24" s="37"/>
       <c r="I24" s="53">
         <v>500</v>
@@ -2517,7 +2520,7 @@
       <c r="P24" s="37"/>
       <c r="Q24" s="38"/>
     </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F25" s="37"/>
       <c r="I25" s="53">
         <v>600</v>
@@ -2541,7 +2544,7 @@
       <c r="P25" s="37"/>
       <c r="Q25" s="38"/>
     </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F26" s="37"/>
       <c r="I26" s="54">
         <v>800</v>
@@ -2561,7 +2564,7 @@
       <c r="P26" s="37"/>
       <c r="Q26" s="38"/>
     </row>
-    <row r="27" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F27" s="37"/>
       <c r="I27" s="55">
         <v>900</v>
@@ -2585,7 +2588,7 @@
       <c r="P27" s="37"/>
       <c r="Q27" s="38"/>
     </row>
-    <row r="28" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F28" s="37"/>
       <c r="J28"/>
       <c r="L28" s="52"/>
@@ -2594,7 +2597,7 @@
       <c r="P28" s="38"/>
       <c r="Q28" s="37"/>
     </row>
-    <row r="29" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F29" s="37"/>
       <c r="J29"/>
       <c r="L29" s="52"/>
@@ -2633,13 +2636,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="31" t="s">
@@ -2659,13 +2662,13 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="93" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="80" t="s">
@@ -2676,9 +2679,9 @@
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="80" t="s">
         <v>44</v>
       </c>
@@ -2687,9 +2690,9 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="80" t="s">
         <v>44</v>
       </c>
@@ -2698,9 +2701,9 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="80" t="s">
@@ -2711,9 +2714,9 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
       <c r="F8" s="80" t="s">
         <v>44</v>
       </c>
@@ -2722,9 +2725,9 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="80" t="s">
         <v>44</v>
       </c>
@@ -2733,8 +2736,8 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="79"/>
       <c r="F10" s="80" t="s">
         <v>44</v>
@@ -2744,9 +2747,9 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92" t="s">
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="80" t="s">
@@ -2757,9 +2760,9 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="80" t="s">
         <v>44</v>
       </c>
@@ -2768,8 +2771,8 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
       <c r="E13" s="35" t="s">
         <v>56</v>
       </c>
@@ -2781,9 +2784,9 @@
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92" t="s">
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="80" t="s">
@@ -2794,9 +2797,9 @@
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="80" t="s">
         <v>44</v>
       </c>
@@ -2805,9 +2808,9 @@
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
       <c r="F16" s="80" t="s">
         <v>44</v>
       </c>
@@ -2816,9 +2819,9 @@
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="80" t="s">
         <v>44</v>
       </c>
@@ -2827,11 +2830,11 @@
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="92"/>
-      <c r="D18" s="92" t="s">
+      <c r="C18" s="93"/>
+      <c r="D18" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="95" t="s">
+      <c r="E18" s="94" t="s">
         <v>60</v>
       </c>
       <c r="F18" s="80" t="s">
@@ -2842,9 +2845,9 @@
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="95"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94"/>
       <c r="F19" s="80" t="s">
         <v>44</v>
       </c>
@@ -2853,9 +2856,9 @@
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92" t="s">
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93" t="s">
         <v>64</v>
       </c>
       <c r="F20" s="80" t="s">
@@ -2866,9 +2869,9 @@
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
       <c r="F21" s="80" t="s">
         <v>44</v>
       </c>
@@ -2877,9 +2880,9 @@
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
       <c r="F22" s="80" t="s">
         <v>44</v>
       </c>
@@ -2888,9 +2891,9 @@
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92" t="s">
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93" t="s">
         <v>54</v>
       </c>
       <c r="F23" s="80" t="s">
@@ -2901,9 +2904,9 @@
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="80" t="s">
         <v>44</v>
       </c>
@@ -2912,8 +2915,8 @@
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="35" t="s">
         <v>56</v>
       </c>
@@ -2925,9 +2928,9 @@
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92" t="s">
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93" t="s">
         <v>144</v>
       </c>
       <c r="F26" s="80" t="s">
@@ -2938,9 +2941,9 @@
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
       <c r="F27" s="80" t="s">
         <v>44</v>
       </c>
@@ -2949,9 +2952,9 @@
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
       <c r="F28" s="80" t="s">
         <v>44</v>
       </c>
@@ -2960,9 +2963,9 @@
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="80" t="s">
         <v>44</v>
       </c>
@@ -2971,20 +2974,20 @@
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
       <c r="F30" s="80"/>
       <c r="G30" s="30" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="92"/>
-      <c r="D31" s="92" t="s">
+      <c r="C31" s="93"/>
+      <c r="D31" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="92"/>
+      <c r="E31" s="93"/>
       <c r="F31" s="80" t="s">
         <v>44</v>
       </c>
@@ -2993,9 +2996,9 @@
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
       <c r="F32" s="80" t="s">
         <v>44</v>
       </c>
@@ -3004,9 +3007,9 @@
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="80" t="s">
         <v>44</v>
       </c>
@@ -3015,9 +3018,9 @@
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
       <c r="F34" s="80" t="s">
         <v>44</v>
       </c>
@@ -3026,9 +3029,9 @@
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="80" t="s">
         <v>44</v>
       </c>
@@ -3037,9 +3040,9 @@
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
       <c r="F36" s="80" t="s">
         <v>44</v>
       </c>
@@ -3048,9 +3051,9 @@
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
       <c r="F37" s="80" t="s">
         <v>44</v>
       </c>
@@ -3059,9 +3062,9 @@
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
       <c r="F38" s="80" t="s">
         <v>44</v>
       </c>
@@ -3070,9 +3073,9 @@
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
       <c r="F39" s="80" t="s">
         <v>44</v>
       </c>
@@ -3081,9 +3084,9 @@
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
       <c r="F40" s="80" t="s">
         <v>44</v>
       </c>
@@ -3092,11 +3095,11 @@
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="92"/>
-      <c r="D41" s="93" t="s">
+      <c r="C41" s="93"/>
+      <c r="D41" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="93"/>
+      <c r="E41" s="95"/>
       <c r="F41" s="80" t="s">
         <v>44</v>
       </c>
@@ -3105,11 +3108,11 @@
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="92"/>
-      <c r="D42" s="93" t="s">
+      <c r="C42" s="93"/>
+      <c r="D42" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="93"/>
+      <c r="E42" s="95"/>
       <c r="F42" s="80" t="s">
         <v>44</v>
       </c>
@@ -3121,10 +3124,10 @@
       <c r="C43" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="93" t="s">
+      <c r="D43" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="93"/>
+      <c r="E43" s="95"/>
       <c r="F43" s="80" t="s">
         <v>44</v>
       </c>
@@ -3133,13 +3136,13 @@
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="92" t="s">
+      <c r="C44" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="92" t="s">
+      <c r="D44" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="92"/>
+      <c r="E44" s="93"/>
       <c r="F44" s="80" t="s">
         <v>44</v>
       </c>
@@ -3148,9 +3151,9 @@
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
       <c r="F45" s="80" t="s">
         <v>44</v>
       </c>
@@ -3159,9 +3162,9 @@
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
       <c r="F46" s="80" t="s">
         <v>44</v>
       </c>
@@ -3170,9 +3173,9 @@
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
       <c r="F47" s="80" t="s">
         <v>44</v>
       </c>
@@ -3181,9 +3184,9 @@
       </c>
     </row>
     <row r="48" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
       <c r="F48" s="80" t="s">
         <v>44</v>
       </c>
@@ -3192,9 +3195,9 @@
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
       <c r="F49" s="80" t="s">
         <v>44</v>
       </c>
@@ -3203,9 +3206,9 @@
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
       <c r="F50" s="80" t="s">
         <v>44</v>
       </c>
@@ -3214,9 +3217,9 @@
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
       <c r="F51" s="80" t="s">
         <v>44</v>
       </c>
@@ -3225,9 +3228,9 @@
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
       <c r="F52" s="80" t="s">
         <v>44</v>
       </c>
@@ -3236,9 +3239,9 @@
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
       <c r="F53" s="80" t="s">
         <v>44</v>
       </c>
@@ -3247,11 +3250,11 @@
       </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="92"/>
-      <c r="D54" s="93" t="s">
+      <c r="C54" s="93"/>
+      <c r="D54" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="93"/>
+      <c r="E54" s="95"/>
       <c r="F54" s="80" t="s">
         <v>44</v>
       </c>
@@ -3263,10 +3266,10 @@
       <c r="C55" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="93" t="s">
+      <c r="D55" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="E55" s="93"/>
+      <c r="E55" s="95"/>
       <c r="F55" s="80" t="s">
         <v>44</v>
       </c>
@@ -3276,6 +3279,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C44:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D44:E53"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D55:E55"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E7:E9"/>
@@ -3291,11 +3299,6 @@
     <mergeCell ref="D31:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
-    <mergeCell ref="C44:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D44:E53"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D55:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
